--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_678.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_678.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32122-d76244-Reviews-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>111</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Rodeway-Inn-Near-Maingate-Knotts.h906755.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_678.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_678.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="443">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1239 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r576070260-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>32122</t>
+  </si>
+  <si>
+    <t>76244</t>
+  </si>
+  <si>
+    <t>576070260</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>Much Nicer than we expected from the reviews posted</t>
+  </si>
+  <si>
+    <t>We must have had one of the nicer rooms because it was just perfect.  Amazingly roomy with two queen beds and plenty of space for Everyone.  Upstairs overlooking the pool and very quiet.  The pool was too chilly to use in Apr but the spa was heavenly for those end of day muscles.  Nice quick breakfast items in the morning, lots of TV channels for the grandson.  Such an easy walk over to Knotts the next morning that I'm almost afraid to tell everyone about this great budget hotel.  We stayed on a Friday night and our check in guy was great.  Will definitely look forward to returning!</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r570007342-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>570007342</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>Horrific!!!</t>
+  </si>
+  <si>
+    <t>We rented two rooms and both were disgusting!! We found drug paraphernalia in both rooms. Not exactly what we wanted to find especially since we had kids. The bed sheets were gross and there was hair everywhere!!! We found hair on the bed, on the pillows, on the sheets and on the towels. We talked to the person in the front office but all we got was a "I'm sorry there are no other rooms" and "the rooms were previously cleaned" Didn't feel like arguing much since the price we paid was low. We took a trip to Target where we purchased bed sheets, pillows, blankets and towels for our three day stay.The only reason this review gets an additional star is because it is in great location.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>We rented two rooms and both were disgusting!! We found drug paraphernalia in both rooms. Not exactly what we wanted to find especially since we had kids. The bed sheets were gross and there was hair everywhere!!! We found hair on the bed, on the pillows, on the sheets and on the towels. We talked to the person in the front office but all we got was a "I'm sorry there are no other rooms" and "the rooms were previously cleaned" Didn't feel like arguing much since the price we paid was low. We took a trip to Target where we purchased bed sheets, pillows, blankets and towels for our three day stay.The only reason this review gets an additional star is because it is in great location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r523809901-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>523809901</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>Cheap and good location</t>
+  </si>
+  <si>
+    <t>We stayed here over night on our recent trip to Knotts Berry Farm. Pros: Great location, walking distance to Knotts Berry Farm and many restaurants and fast food.Cheap priceMini fridge and microwave in room. Cons:Our room had beat up walls in the bedroom and bathroom. It looked like they were patched many times over by an amateur.The bedroom widow looked right into a hallway window so we had to keep the curtains shut the whole time. The shower head was the size of a quarter! The bottom of the pool was covered with algae. The jacuzzi was tiny 2 people was fine 3 would be a crowd. This motel did fine for sleeping on an overnight stay but definitely would not make this a home base motel for a family vacation for a week. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We stayed here over night on our recent trip to Knotts Berry Farm. Pros: Great location, walking distance to Knotts Berry Farm and many restaurants and fast food.Cheap priceMini fridge and microwave in room. Cons:Our room had beat up walls in the bedroom and bathroom. It looked like they were patched many times over by an amateur.The bedroom widow looked right into a hallway window so we had to keep the curtains shut the whole time. The shower head was the size of a quarter! The bottom of the pool was covered with algae. The jacuzzi was tiny 2 people was fine 3 would be a crowd. This motel did fine for sleeping on an overnight stay but definitely would not make this a home base motel for a family vacation for a week. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r491643926-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>491643926</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>Simple motel, good value, good location</t>
+  </si>
+  <si>
+    <t>Standard room with decent beds and are clean. Bath towels are small, old and need to be replaced. The rooms are inexpensive compared to others nearby. Very close to major attractions such as Knott's Berry Farm, Medieval Times, Pirate's Dinner Adventure etc. My room was facing Beach Blvd. Knott's Berry Farm is half block away and closes at 11PM on the Saturday when we were there. So we could hear the roller coaster with kids screaming even our room has double pane windows.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r479148407-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>479148407</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>Great choice</t>
+  </si>
+  <si>
+    <t>My family and I enjoyed our stay so much that we decided to extend our stay one extra night. The facility is very clean, staff was very helpful and kids really enjoyed the pool as well as the continental breakfast. HIGHLY recommend this place.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r470990766-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>470990766</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly staff, and the renovations they've done have updated the look.  Rooms are spacious and the hotel is within walking distance to Knotts berry farm. Tons of eateries within walking distance too. A great place to stay! </t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r424706211-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>424706211</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMAZING STAFF AND CLEAN ROOMS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed there recently and were very impressed with the hotels staff and beautiful pool and jacuzzi ! I would definitely recommend this hotel for my family and friends . They were also really nice to my service animal and had amazing recommendations for dinner and lunch. All in all great place </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r412519898-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>412519898</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>Will not return again</t>
+  </si>
+  <si>
+    <t>Cheapest hotel near Knott's Berry Farm but you get what you pay for. Our bathroom was semi clogged, we had to turn off the water so the water could drain. Missing towels, smelled like smoke and breakfast was not sufficient but that is expected. Even if I was on a tight budget, I would not come here and put up with the mentioned problems.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r403411434-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>403411434</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>Good, but not great</t>
+  </si>
+  <si>
+    <t>The hotel itself was nice, but was understaffed. We arrived early and was able to get our room, but we had no towels.  We asked for some and after 2 plus hours, we were given pool towels which were smaller in size. The room was great, bed was comfortable. The breakfast offered was smaller than expected. A few cereals, pastries, orange juice, coffee...no fruit. Right across the street from Knotts Berry Farm, so the commute was nothing. Would stay here again.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r361368855-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>361368855</t>
+  </si>
+  <si>
+    <t>04/03/2016</t>
+  </si>
+  <si>
+    <t>Knott's Berry Farm the easy and affordable way</t>
+  </si>
+  <si>
+    <t>If you wish to stay near Knott's Berry Farm, Rodeway Inn is the closest motel to the front gates, where you can park for free, and there is plenty of eating options next to the motel car park including Subway and IHOP, while McDonalds is directly across the road.  The free breakfast is also appreciated, although it is pretty basic, with service starting at 7am.We were actually considering going to Sea World San Diego on our recent holiday, however, it ended up being substantially cheaper for a family of 4 to go to Knott's Berry Farm with it offering US$40 online tickets versus US$69 tickets at Sea World.  My kids loved Knott's Berry Farm, and visiting in January, there was virtually no wait to get on rides, so we made the right choice.Overall the rooms were what I expected for the price, providing the basics if you are out at Knott's Berry Farm all day.  The only aspect which would have been appreciated was having earlier access to our room.  My experience at reception gave me the impression that Rodeway Inn adhered strictly to check in times, even if you room was available.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>If you wish to stay near Knott's Berry Farm, Rodeway Inn is the closest motel to the front gates, where you can park for free, and there is plenty of eating options next to the motel car park including Subway and IHOP, while McDonalds is directly across the road.  The free breakfast is also appreciated, although it is pretty basic, with service starting at 7am.We were actually considering going to Sea World San Diego on our recent holiday, however, it ended up being substantially cheaper for a family of 4 to go to Knott's Berry Farm with it offering US$40 online tickets versus US$69 tickets at Sea World.  My kids loved Knott's Berry Farm, and visiting in January, there was virtually no wait to get on rides, so we made the right choice.Overall the rooms were what I expected for the price, providing the basics if you are out at Knott's Berry Farm all day.  The only aspect which would have been appreciated was having earlier access to our room.  My experience at reception gave me the impression that Rodeway Inn adhered strictly to check in times, even if you room was available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r337069996-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>337069996</t>
+  </si>
+  <si>
+    <t>01/03/2016</t>
+  </si>
+  <si>
+    <t>Super Ghetto</t>
+  </si>
+  <si>
+    <t>This hotel is in a great location. Across the street from Knotts Berry Farm. Its outdated, worn down, and super ghetto. But its cheap. You get what you pay for. They had smoking rooms which is nice. Our window was open when we got to the room. No screen and a stick to use to lock the window. Rap blaring in the hallway. There a kitchenette which was unexpected. All in all worth the money for a nights rest.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r299674844-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>299674844</t>
+  </si>
+  <si>
+    <t>08/15/2015</t>
+  </si>
+  <si>
+    <t>Great for just a bed.</t>
+  </si>
+  <si>
+    <t>Friends and I traveled to Cali for my friends 21st birthday. We chose this hotel because it is a choice hotel and I am a choice employee. Our intention for the hotel room was a place to get ready for bar hopping after hitting the beach in the early morning. It suited our needs just fine, although the shower pressure was seriously lacking.The front desk clerk was nice, although it seemed a very formal environment. The hotel itself was pretty run down, but the rooms weren't gross or anything. All in all it was a good spot to get ready and crash at the end of the night.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r282121048-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>282121048</t>
+  </si>
+  <si>
+    <t>06/22/2015</t>
+  </si>
+  <si>
+    <t>On the way to Cruise:))</t>
+  </si>
+  <si>
+    <t>Ok we have stayed here before nothing fancy ,but close to Knotts which is why we choose this hotel and its very affordable. But you should know it is old and linens and towels shouls be replaced but we learned and take our own towels and extra blankets not a big deal for us. Also since we do save some money and we dont pay parking at Knotts we eat at Mcdonalds right across the street, so breakfast is not an issue, I get coffee only but they do need to improve on their breakfast better pastries and cereal for kids. Housekeeping staff is not that cool but Ms Karen in front is awesomeeee! Overall good place to stay and we will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Ok we have stayed here before nothing fancy ,but close to Knotts which is why we choose this hotel and its very affordable. But you should know it is old and linens and towels shouls be replaced but we learned and take our own towels and extra blankets not a big deal for us. Also since we do save some money and we dont pay parking at Knotts we eat at Mcdonalds right across the street, so breakfast is not an issue, I get coffee only but they do need to improve on their breakfast better pastries and cereal for kids. Housekeeping staff is not that cool but Ms Karen in front is awesomeeee! Overall good place to stay and we will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r279533393-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>279533393</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>Good price..no frills</t>
+  </si>
+  <si>
+    <t>This place is ok...not fancy and decent price but don't expect breakfast other than toast......and its old and a bit run down.,.but again......good price for Orange county, CA. I was out here for a family outing and needed inexpensive lodging......it served its purpose. A coat of paint would work wonders! Also, they rarely add your frequent stay points so stay on these people!</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r262575069-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>262575069</t>
+  </si>
+  <si>
+    <t>03/29/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good hotel bad wifi </t>
+  </si>
+  <si>
+    <t>It's really nice hotel but the wifi doesn't work at all.i have read about this problem through out the reviews but still doesn't work.if they fix it I think it will be perfect stay.for a business trip I don't think I will stay there again due to the fact I can't access the Internet .MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>ninat111, Manager at Rodeway Inn Near Maingate Knott's, responded to this reviewResponded April 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2015</t>
+  </si>
+  <si>
+    <t>It's really nice hotel but the wifi doesn't work at all.i have read about this problem through out the reviews but still doesn't work.if they fix it I think it will be perfect stay.for a business trip I don't think I will stay there again due to the fact I can't access the Internet .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r245685412-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>245685412</t>
+  </si>
+  <si>
+    <t>12/23/2014</t>
+  </si>
+  <si>
+    <t>Rodeway inn buena park</t>
+  </si>
+  <si>
+    <t>I think this is a great location. Good to everything entertainment. Mr. Patel is an outstanding owner and is very kind and takes a legitimate concern with every customer. I feel that the amenities are fantastic. Free wireless internet, coffee in every room (you can always ask the maid for more), big screen cable T.V. screens in the rooms with remote. Small but convenient kitchenette including a microwave, stove, full size refrigerator, nice office desk with a lamp. enough space to hang your clothes and enough space to comfortably put your clothes in the marble top dresser (huge). King size bed. Now for the critique. Outdated furniture, old carpet, wallpaper that needs to be removed, old beds (but comfortable), great clean swimming pool, I personally like the furniture in my room; other than the chipped table in my room. The only real problem that I see is the rif-raf that comes in the parking lot at times, and the noise from the bar two doors down out their back door. I realize there is nothing to do about that it is what it is. With new carpets which they are getting, new furniture, new paint jobs in the room (no wallpaper) and the hallways. Something that I really liked was the free cereal, toast, coffee and milk and orange juice in the T.V. room downstairs across from the front office. I think this is a fantastic motel that just needs...I think this is a great location. Good to everything entertainment. Mr. Patel is an outstanding owner and is very kind and takes a legitimate concern with every customer. I feel that the amenities are fantastic. Free wireless internet, coffee in every room (you can always ask the maid for more), big screen cable T.V. screens in the rooms with remote. Small but convenient kitchenette including a microwave, stove, full size refrigerator, nice office desk with a lamp. enough space to hang your clothes and enough space to comfortably put your clothes in the marble top dresser (huge). King size bed. Now for the critique. Outdated furniture, old carpet, wallpaper that needs to be removed, old beds (but comfortable), great clean swimming pool, I personally like the furniture in my room; other than the chipped table in my room. The only real problem that I see is the rif-raf that comes in the parking lot at times, and the noise from the bar two doors down out their back door. I realize there is nothing to do about that it is what it is. With new carpets which they are getting, new furniture, new paint jobs in the room (no wallpaper) and the hallways. Something that I really liked was the free cereal, toast, coffee and milk and orange juice in the T.V. room downstairs across from the front office. I think this is a fantastic motel that just needs a little TLC. Mr. Patel thank you for a wonderful experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>I think this is a great location. Good to everything entertainment. Mr. Patel is an outstanding owner and is very kind and takes a legitimate concern with every customer. I feel that the amenities are fantastic. Free wireless internet, coffee in every room (you can always ask the maid for more), big screen cable T.V. screens in the rooms with remote. Small but convenient kitchenette including a microwave, stove, full size refrigerator, nice office desk with a lamp. enough space to hang your clothes and enough space to comfortably put your clothes in the marble top dresser (huge). King size bed. Now for the critique. Outdated furniture, old carpet, wallpaper that needs to be removed, old beds (but comfortable), great clean swimming pool, I personally like the furniture in my room; other than the chipped table in my room. The only real problem that I see is the rif-raf that comes in the parking lot at times, and the noise from the bar two doors down out their back door. I realize there is nothing to do about that it is what it is. With new carpets which they are getting, new furniture, new paint jobs in the room (no wallpaper) and the hallways. Something that I really liked was the free cereal, toast, coffee and milk and orange juice in the T.V. room downstairs across from the front office. I think this is a fantastic motel that just needs...I think this is a great location. Good to everything entertainment. Mr. Patel is an outstanding owner and is very kind and takes a legitimate concern with every customer. I feel that the amenities are fantastic. Free wireless internet, coffee in every room (you can always ask the maid for more), big screen cable T.V. screens in the rooms with remote. Small but convenient kitchenette including a microwave, stove, full size refrigerator, nice office desk with a lamp. enough space to hang your clothes and enough space to comfortably put your clothes in the marble top dresser (huge). King size bed. Now for the critique. Outdated furniture, old carpet, wallpaper that needs to be removed, old beds (but comfortable), great clean swimming pool, I personally like the furniture in my room; other than the chipped table in my room. The only real problem that I see is the rif-raf that comes in the parking lot at times, and the noise from the bar two doors down out their back door. I realize there is nothing to do about that it is what it is. With new carpets which they are getting, new furniture, new paint jobs in the room (no wallpaper) and the hallways. Something that I really liked was the free cereal, toast, coffee and milk and orange juice in the T.V. room downstairs across from the front office. I think this is a fantastic motel that just needs a little TLC. Mr. Patel thank you for a wonderful experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r232941464-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>232941464</t>
+  </si>
+  <si>
+    <t>10/06/2014</t>
+  </si>
+  <si>
+    <t>Decent place to stay in prior review, not so much this time</t>
+  </si>
+  <si>
+    <t>I have stayed here twice before and had much more pleasant experiences. It is about the most convenient Inn when going to Knott's Berry Farm. It is the same walking distance as Knott's on-property hotel but at half the price. Don't get me wrong, I don't expect it to be as nice. While Knott's Hotel is a full-service property, the Rodeway is a cross between a Hotel and a Motel, hence an Inn. On my two previous visits I had nothing noteworthy to complain about, but this time was different. I stayed for two nights, a Saturday and a Sunday while attending Knott's Scary Farms Halloween Haunt. I had originally booked it, as a Choice Privileges member for $161.26 for two nights. Later I found it cheaper, $131.02, and took them-up on their price matching promise. They did that and confirmed the lower rate to me. Upon check-in I was still charged the higher rate, but did get it refunded without a problem after bringing it to their attention. Have to wait for my credit card bill to be sure it went through. For the room itself, the phone had absolutely no markings for how to dial-out, front desk, etc... I had to go to the front desk to find out how to make a call. There was absolutely no pen or paper to write anything down. Another trip to the front desk, which resulted in a couple sheets of...I have stayed here twice before and had much more pleasant experiences. It is about the most convenient Inn when going to Knott's Berry Farm. It is the same walking distance as Knott's on-property hotel but at half the price. Don't get me wrong, I don't expect it to be as nice. While Knott's Hotel is a full-service property, the Rodeway is a cross between a Hotel and a Motel, hence an Inn. On my two previous visits I had nothing noteworthy to complain about, but this time was different. I stayed for two nights, a Saturday and a Sunday while attending Knott's Scary Farms Halloween Haunt. I had originally booked it, as a Choice Privileges member for $161.26 for two nights. Later I found it cheaper, $131.02, and took them-up on their price matching promise. They did that and confirmed the lower rate to me. Upon check-in I was still charged the higher rate, but did get it refunded without a problem after bringing it to their attention. Have to wait for my credit card bill to be sure it went through. For the room itself, the phone had absolutely no markings for how to dial-out, front desk, etc... I had to go to the front desk to find out how to make a call. There was absolutely no pen or paper to write anything down. Another trip to the front desk, which resulted in a couple sheets of note paper, and a used Radisson Hotel pen. Although I never used it, the room had an ironing board in the closet, but no iron. WHile the desk area had a current of a 'goings on in Orange County' magazine, under my bed I found a dated issue on the floor, indicating they do not clean very well, at least under the bed. For the microwave and coffee maker, the coffee maker along with a tray for cups and the ice bucket rested on top of the ventilation grills for the microwave. If you kept the coffee maker where it was to make coffee, you had to unplug either the microwave or the refrigerator. And even then the cord is so short you have to slide it to the edge, I dumped it once and later had to just leave it on the floor. When I came back to my room about 1:00am after a full night at Knott's I found my alarm clock going off, who knows how long, housekeeping must have flipped it on. I had never had these problems in the past. That being said, my biggest grievance was the hotel seemed to be booked by an entire tour group from Bora Bora, guessing from the clothing and t-shirts they were wearing, who seemed to have no problem with making the hotel their own, loud music with their doors open, shouting down the length of the halls, little kids racing up and down the halls and screaming and yelling. And doors being slammed constantly. Obviously no parental supervision out of respect to other guests since the adults were doing it too. I don't think I will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>I have stayed here twice before and had much more pleasant experiences. It is about the most convenient Inn when going to Knott's Berry Farm. It is the same walking distance as Knott's on-property hotel but at half the price. Don't get me wrong, I don't expect it to be as nice. While Knott's Hotel is a full-service property, the Rodeway is a cross between a Hotel and a Motel, hence an Inn. On my two previous visits I had nothing noteworthy to complain about, but this time was different. I stayed for two nights, a Saturday and a Sunday while attending Knott's Scary Farms Halloween Haunt. I had originally booked it, as a Choice Privileges member for $161.26 for two nights. Later I found it cheaper, $131.02, and took them-up on their price matching promise. They did that and confirmed the lower rate to me. Upon check-in I was still charged the higher rate, but did get it refunded without a problem after bringing it to their attention. Have to wait for my credit card bill to be sure it went through. For the room itself, the phone had absolutely no markings for how to dial-out, front desk, etc... I had to go to the front desk to find out how to make a call. There was absolutely no pen or paper to write anything down. Another trip to the front desk, which resulted in a couple sheets of...I have stayed here twice before and had much more pleasant experiences. It is about the most convenient Inn when going to Knott's Berry Farm. It is the same walking distance as Knott's on-property hotel but at half the price. Don't get me wrong, I don't expect it to be as nice. While Knott's Hotel is a full-service property, the Rodeway is a cross between a Hotel and a Motel, hence an Inn. On my two previous visits I had nothing noteworthy to complain about, but this time was different. I stayed for two nights, a Saturday and a Sunday while attending Knott's Scary Farms Halloween Haunt. I had originally booked it, as a Choice Privileges member for $161.26 for two nights. Later I found it cheaper, $131.02, and took them-up on their price matching promise. They did that and confirmed the lower rate to me. Upon check-in I was still charged the higher rate, but did get it refunded without a problem after bringing it to their attention. Have to wait for my credit card bill to be sure it went through. For the room itself, the phone had absolutely no markings for how to dial-out, front desk, etc... I had to go to the front desk to find out how to make a call. There was absolutely no pen or paper to write anything down. Another trip to the front desk, which resulted in a couple sheets of note paper, and a used Radisson Hotel pen. Although I never used it, the room had an ironing board in the closet, but no iron. WHile the desk area had a current of a 'goings on in Orange County' magazine, under my bed I found a dated issue on the floor, indicating they do not clean very well, at least under the bed. For the microwave and coffee maker, the coffee maker along with a tray for cups and the ice bucket rested on top of the ventilation grills for the microwave. If you kept the coffee maker where it was to make coffee, you had to unplug either the microwave or the refrigerator. And even then the cord is so short you have to slide it to the edge, I dumped it once and later had to just leave it on the floor. When I came back to my room about 1:00am after a full night at Knott's I found my alarm clock going off, who knows how long, housekeeping must have flipped it on. I had never had these problems in the past. That being said, my biggest grievance was the hotel seemed to be booked by an entire tour group from Bora Bora, guessing from the clothing and t-shirts they were wearing, who seemed to have no problem with making the hotel their own, loud music with their doors open, shouting down the length of the halls, little kids racing up and down the halls and screaming and yelling. And doors being slammed constantly. Obviously no parental supervision out of respect to other guests since the adults were doing it too. I don't think I will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r224454581-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>224454581</t>
+  </si>
+  <si>
+    <t>08/25/2014</t>
+  </si>
+  <si>
+    <t>Mixed Feelings</t>
+  </si>
+  <si>
+    <t>There are many wonderful aspects to this hotel, but I wouldn't do travelers justice if I left out my concerns.  Some of my concerns don't have to do with the hotel itself, just their location.
+Good:  Outstanding location to Knotts at an unbeatable price.  The hotel is right next to IHOP and across the street from Claim Jumper Restaurant. You can easily walk to Knotts Berry Farm (1 block) from the hotel and save on parking fees.  When visiting California, we always stay in this area because of Knotts.  We love the park and Chicken Dinner Restaurant.  This was our first time staying at the Rodeway.  The hotel had clean rooms, outdoor pool, and simple breakfast (bread, coffee, cereal).  I'm not going to criticize the breakfast because I think it's nice that they give any sort of breakfast to their guests.  At the low price they charge for their rooms, you can't expect a hot buffet.
+Not so good:  There were a lot of old TVs and mattresses near the entrance waiting for disposal.  A lot of people seemed to live in the hotel.  Cars outside were even packed with items as though people were living out of them. The hotel seemed to be located in a little bit of a shady area.  We really didn't feel too comfortable walking around at night.  This is not a hotel flaw, just an observation of the area.  The general area has a...There are many wonderful aspects to this hotel, but I wouldn't do travelers justice if I left out my concerns.  Some of my concerns don't have to do with the hotel itself, just their location.Good:  Outstanding location to Knotts at an unbeatable price.  The hotel is right next to IHOP and across the street from Claim Jumper Restaurant. You can easily walk to Knotts Berry Farm (1 block) from the hotel and save on parking fees.  When visiting California, we always stay in this area because of Knotts.  We love the park and Chicken Dinner Restaurant.  This was our first time staying at the Rodeway.  The hotel had clean rooms, outdoor pool, and simple breakfast (bread, coffee, cereal).  I'm not going to criticize the breakfast because I think it's nice that they give any sort of breakfast to their guests.  At the low price they charge for their rooms, you can't expect a hot buffet.Not so good:  There were a lot of old TVs and mattresses near the entrance waiting for disposal.  A lot of people seemed to live in the hotel.  Cars outside were even packed with items as though people were living out of them. The hotel seemed to be located in a little bit of a shady area.  We really didn't feel too comfortable walking around at night.  This is not a hotel flaw, just an observation of the area.  The general area has a few shady people walking around. The hotel did do a great job locking their office up at night and keeping iron bars all around the first floor area and pool area.  Although it doesn't help improve the ambiance, it does give you a safer feeling.  Overall:  Great price for a nice room!  Our room had a kitchenette!  Very nice touch!  We would stay here again.Suggestions:  Towel upgrade needed!  Decorate entrance area with flowers or plants.  This will help make guests feel like they are on vacation.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>There are many wonderful aspects to this hotel, but I wouldn't do travelers justice if I left out my concerns.  Some of my concerns don't have to do with the hotel itself, just their location.
+Good:  Outstanding location to Knotts at an unbeatable price.  The hotel is right next to IHOP and across the street from Claim Jumper Restaurant. You can easily walk to Knotts Berry Farm (1 block) from the hotel and save on parking fees.  When visiting California, we always stay in this area because of Knotts.  We love the park and Chicken Dinner Restaurant.  This was our first time staying at the Rodeway.  The hotel had clean rooms, outdoor pool, and simple breakfast (bread, coffee, cereal).  I'm not going to criticize the breakfast because I think it's nice that they give any sort of breakfast to their guests.  At the low price they charge for their rooms, you can't expect a hot buffet.
+Not so good:  There were a lot of old TVs and mattresses near the entrance waiting for disposal.  A lot of people seemed to live in the hotel.  Cars outside were even packed with items as though people were living out of them. The hotel seemed to be located in a little bit of a shady area.  We really didn't feel too comfortable walking around at night.  This is not a hotel flaw, just an observation of the area.  The general area has a...There are many wonderful aspects to this hotel, but I wouldn't do travelers justice if I left out my concerns.  Some of my concerns don't have to do with the hotel itself, just their location.Good:  Outstanding location to Knotts at an unbeatable price.  The hotel is right next to IHOP and across the street from Claim Jumper Restaurant. You can easily walk to Knotts Berry Farm (1 block) from the hotel and save on parking fees.  When visiting California, we always stay in this area because of Knotts.  We love the park and Chicken Dinner Restaurant.  This was our first time staying at the Rodeway.  The hotel had clean rooms, outdoor pool, and simple breakfast (bread, coffee, cereal).  I'm not going to criticize the breakfast because I think it's nice that they give any sort of breakfast to their guests.  At the low price they charge for their rooms, you can't expect a hot buffet.Not so good:  There were a lot of old TVs and mattresses near the entrance waiting for disposal.  A lot of people seemed to live in the hotel.  Cars outside were even packed with items as though people were living out of them. The hotel seemed to be located in a little bit of a shady area.  We really didn't feel too comfortable walking around at night.  This is not a hotel flaw, just an observation of the area.  The general area has a few shady people walking around. The hotel did do a great job locking their office up at night and keeping iron bars all around the first floor area and pool area.  Although it doesn't help improve the ambiance, it does give you a safer feeling.  Overall:  Great price for a nice room!  Our room had a kitchenette!  Very nice touch!  We would stay here again.Suggestions:  Towel upgrade needed!  Decorate entrance area with flowers or plants.  This will help make guests feel like they are on vacation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r213834953-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>213834953</t>
+  </si>
+  <si>
+    <t>07/05/2014</t>
+  </si>
+  <si>
+    <t>ok for the price, but would not stay again</t>
+  </si>
+  <si>
+    <t>I needed a place to stay on short notice for the night of July 4th &amp; this is what I found; for the price I paid (around $70 tax included) it was about what I expected. Pros: free parking, about a 5 minute walk from the hotel to Knott's ticket booths, clean pool with many lounge chairs, interior corridors, new carpet and granite bathroom fixtures in the room I had, bed was decent...not brand new, but not terrible and lumpy or anything, full-sized refrigerator in the room. Cons: towels were old and stained (I used the beach towel I brought for showering also), shady characters hanging around the parking lot at night, toilet had to be flushed twice for liquids and 3-4 times for solids (yuck!), bad smells in the lobby (food being cooked?) and in the halls (urine?). The hotel served its purpose (a place to sleep and shower for an overnight stay), but I would not stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>I needed a place to stay on short notice for the night of July 4th &amp; this is what I found; for the price I paid (around $70 tax included) it was about what I expected. Pros: free parking, about a 5 minute walk from the hotel to Knott's ticket booths, clean pool with many lounge chairs, interior corridors, new carpet and granite bathroom fixtures in the room I had, bed was decent...not brand new, but not terrible and lumpy or anything, full-sized refrigerator in the room. Cons: towels were old and stained (I used the beach towel I brought for showering also), shady characters hanging around the parking lot at night, toilet had to be flushed twice for liquids and 3-4 times for solids (yuck!), bad smells in the lobby (food being cooked?) and in the halls (urine?). The hotel served its purpose (a place to sleep and shower for an overnight stay), but I would not stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r212946361-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>212946361</t>
+  </si>
+  <si>
+    <t>06/30/2014</t>
+  </si>
+  <si>
+    <t>Clean rooms, but stained towels.</t>
+  </si>
+  <si>
+    <t>The hotel is in a great spot, walking distance to Medieval Times, Soak City and Knotts Berry farm. The only thing that got me was no towels at first, and the ones we got were stained. They need to invest in towels, and clean the hall ways and stairs. It did look like they were remodeling, but I will have to consider that place cause my wife and kids did not want to use the towels.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r210926619-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>210926619</t>
+  </si>
+  <si>
+    <t>06/18/2014</t>
+  </si>
+  <si>
+    <t>I was happy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed for 4 nights over Father's Day weekend. The place wasn't packed and there was plenty of parking. I felt safe. There are a lot of dining options around. The motel it self is older but they are remodeling. It was quiet even with the pool being used all day right outside of our window. The staff I dealt with were friendly. The beds could have been softer. The TV remote didn't work but not  a big deal. The breakfast is the only disappointment I had. It was sad but for $262 for 4 nights we could afford breakfast elsewhere. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r197233114-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>197233114</t>
+  </si>
+  <si>
+    <t>03/12/2014</t>
+  </si>
+  <si>
+    <t>Musty and run down</t>
+  </si>
+  <si>
+    <t>Let me start with the only good things I have to say about this place and that is that it was pretty clean, the mattresses were pretty comfy, and from the looks of it they are in the process of updating so maybe in a year or two it will be better? Let me also state that I am not used to staying in fancy hotels but I still expected a little more from this place. The rooms smelled horribly musty. My kids could hardly stand it. The hot tub was cold. I even called before I made my reservation to find out if the pool and hot tub were working and they told me that they were. The staff seemed very inconvenienced and annoyed. The cot I paid $10 for was so thin and worn that my 6 year old preferred to sleep on the floor (on top of our own blankets that we brought of course) The towels barely covered me (average height and weight) and my husband (average height and weight) felt like he was using a hand towel. Not to mention the towels were dingy, thin and even had holes in most of them. There was very limited parking. This hotel is not worth more than $50, and definitely NOT the $80 I paid for it. Next time we will stay elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Let me start with the only good things I have to say about this place and that is that it was pretty clean, the mattresses were pretty comfy, and from the looks of it they are in the process of updating so maybe in a year or two it will be better? Let me also state that I am not used to staying in fancy hotels but I still expected a little more from this place. The rooms smelled horribly musty. My kids could hardly stand it. The hot tub was cold. I even called before I made my reservation to find out if the pool and hot tub were working and they told me that they were. The staff seemed very inconvenienced and annoyed. The cot I paid $10 for was so thin and worn that my 6 year old preferred to sleep on the floor (on top of our own blankets that we brought of course) The towels barely covered me (average height and weight) and my husband (average height and weight) felt like he was using a hand towel. Not to mention the towels were dingy, thin and even had holes in most of them. There was very limited parking. This hotel is not worth more than $50, and definitely NOT the $80 I paid for it. Next time we will stay elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r193216899-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>193216899</t>
+  </si>
+  <si>
+    <t>02/05/2014</t>
+  </si>
+  <si>
+    <t>Something Simple</t>
+  </si>
+  <si>
+    <t>You get what you pay for. Look, it wasn't 5 stars but if I had to stay in the area again I'd come back. Quiet... Local... really simple to get to and from. . . It's not like you're in town for the Hotel anyways... I mean really.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r190845153-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>190845153</t>
+  </si>
+  <si>
+    <t>01/14/2014</t>
+  </si>
+  <si>
+    <t>Dont belive all people said</t>
+  </si>
+  <si>
+    <t>I stay the weekend of January the 11th. I saw the reviews and I was concern of making the decision to stay. Finally I did and my family and I had a good time. The personal was really happy and helpful. Breakfast was good and fresh. Location was excellent walking distance from Knott’s, no parking payment yahoo. Restaurants also walking distance. The hotel is been under some construction and that was not a problem. The rooms are normal rooms nothing fancy but for real you there to sleep or use the pool and or Jacuzzi… Did I mention staff was really professional, happy and helpful lol I did…Thanks Rodeway!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r175046545-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>175046545</t>
+  </si>
+  <si>
+    <t>08/31/2013</t>
+  </si>
+  <si>
+    <t>Dumpy, but convenient</t>
+  </si>
+  <si>
+    <t>If you are looking for a short stay, really close to Knotts Berry Farm, with a clean pool/spa, and don't plan on spending much time in the actual room, you'll be fine here. The 2 rooms we stayed in were pretty run down with lots of unfinished wall patching, dirty bathroom counters, broken fridge &amp; oven, no alarm clock, worn-out, stained towels and window screens missing.  The box air conditioning units are so loud, it's hard to sleep  The evening staff can be unpleasant, but the daytime counter person is very friendly &amp; super helpful.On the plus side, the pool was very clean, and they have a nice laundry room, with newer machines.  It was the closest motel to Knotts &amp; Soak Park, and just steps away from great restaurants, Claim Jumper, Medieval Times, Korean BBQ, as well as; Subway, McDonalds, etc.If I could do it over, I would probably spend a few more dollars, and stay somewhere nicer, as my kids are still complaining about how dumpy it was.  1 night is fine, just lower your standards, bring ear plugs, and your own towels.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>If you are looking for a short stay, really close to Knotts Berry Farm, with a clean pool/spa, and don't plan on spending much time in the actual room, you'll be fine here. The 2 rooms we stayed in were pretty run down with lots of unfinished wall patching, dirty bathroom counters, broken fridge &amp; oven, no alarm clock, worn-out, stained towels and window screens missing.  The box air conditioning units are so loud, it's hard to sleep  The evening staff can be unpleasant, but the daytime counter person is very friendly &amp; super helpful.On the plus side, the pool was very clean, and they have a nice laundry room, with newer machines.  It was the closest motel to Knotts &amp; Soak Park, and just steps away from great restaurants, Claim Jumper, Medieval Times, Korean BBQ, as well as; Subway, McDonalds, etc.If I could do it over, I would probably spend a few more dollars, and stay somewhere nicer, as my kids are still complaining about how dumpy it was.  1 night is fine, just lower your standards, bring ear plugs, and your own towels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r172924519-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>172924519</t>
+  </si>
+  <si>
+    <t>08/19/2013</t>
+  </si>
+  <si>
+    <t>Nothing Special, But A Decent Place</t>
+  </si>
+  <si>
+    <t>This place was kind of hit and miss. There were some great things about it, but equally as many bad things about it. When I first came, I had to wait for the man at the window to finish his 5 minute personal phone call in some foreign language. Then I got the keys to my room. Some lights in the room weren't working, and I saw a small cockroach within a couple of minutes. The room smelled like a man's cologne, but not in a good way. There was a lady screaming right outside the window for her life, but I guess that's more of a neighbourhood problem than the hotel's. The bed was quite comfortable. But anyway, I decided to stay another night and they  moved me to a double room, which was very different from the first one. The first one had a full kitchen, while the second one didn't even have a coffee maker. Also, the light switch didn't work, so coming in late was a challenge because I had to open the door, and run to the lights between the beds and turn them on. The second night, my key stopped working and I had to use the other one to get in. The bathroom was very comfortable, however, and lined with marble. The pool looked nice and clean, although I never got the chance to try it. I think this place was quite expensive...This place was kind of hit and miss. There were some great things about it, but equally as many bad things about it. When I first came, I had to wait for the man at the window to finish his 5 minute personal phone call in some foreign language. Then I got the keys to my room. Some lights in the room weren't working, and I saw a small cockroach within a couple of minutes. The room smelled like a man's cologne, but not in a good way. There was a lady screaming right outside the window for her life, but I guess that's more of a neighbourhood problem than the hotel's. The bed was quite comfortable. But anyway, I decided to stay another night and they  moved me to a double room, which was very different from the first one. The first one had a full kitchen, while the second one didn't even have a coffee maker. Also, the light switch didn't work, so coming in late was a challenge because I had to open the door, and run to the lights between the beds and turn them on. The second night, my key stopped working and I had to use the other one to get in. The bathroom was very comfortable, however, and lined with marble. The pool looked nice and clean, although I never got the chance to try it. I think this place was quite expensive for what you actually get. Breakfast was alright. The rates went up the second night I was there.MoreShow less</t>
+  </si>
+  <si>
+    <t>This place was kind of hit and miss. There were some great things about it, but equally as many bad things about it. When I first came, I had to wait for the man at the window to finish his 5 minute personal phone call in some foreign language. Then I got the keys to my room. Some lights in the room weren't working, and I saw a small cockroach within a couple of minutes. The room smelled like a man's cologne, but not in a good way. There was a lady screaming right outside the window for her life, but I guess that's more of a neighbourhood problem than the hotel's. The bed was quite comfortable. But anyway, I decided to stay another night and they  moved me to a double room, which was very different from the first one. The first one had a full kitchen, while the second one didn't even have a coffee maker. Also, the light switch didn't work, so coming in late was a challenge because I had to open the door, and run to the lights between the beds and turn them on. The second night, my key stopped working and I had to use the other one to get in. The bathroom was very comfortable, however, and lined with marble. The pool looked nice and clean, although I never got the chance to try it. I think this place was quite expensive...This place was kind of hit and miss. There were some great things about it, but equally as many bad things about it. When I first came, I had to wait for the man at the window to finish his 5 minute personal phone call in some foreign language. Then I got the keys to my room. Some lights in the room weren't working, and I saw a small cockroach within a couple of minutes. The room smelled like a man's cologne, but not in a good way. There was a lady screaming right outside the window for her life, but I guess that's more of a neighbourhood problem than the hotel's. The bed was quite comfortable. But anyway, I decided to stay another night and they  moved me to a double room, which was very different from the first one. The first one had a full kitchen, while the second one didn't even have a coffee maker. Also, the light switch didn't work, so coming in late was a challenge because I had to open the door, and run to the lights between the beds and turn them on. The second night, my key stopped working and I had to use the other one to get in. The bathroom was very comfortable, however, and lined with marble. The pool looked nice and clean, although I never got the chance to try it. I think this place was quite expensive for what you actually get. Breakfast was alright. The rates went up the second night I was there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r172232328-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>172232328</t>
+  </si>
+  <si>
+    <t>08/14/2013</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r164958140-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>164958140</t>
+  </si>
+  <si>
+    <t>06/23/2013</t>
+  </si>
+  <si>
+    <t>Average hotel but great location for Knotts Berry Farm</t>
+  </si>
+  <si>
+    <t>This hotel is cheap and its location for knotts berry farm is brilliant.  A short stroll gets you to the entrance of the park.  The room was quite dated and very tired, but clean enough.  Staff were reasonable helpful when asked for directions etc.  Breakfast was included and was nice and more than adequate.  Wifi had a strong enough signal.  There are several eating places within a short distance from the hotel and bus stops are located straight outside the hotel. I would stay again based on its price and location only.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r162874160-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>162874160</t>
+  </si>
+  <si>
+    <t>06/03/2013</t>
+  </si>
+  <si>
+    <t>Most disgusting place I have ever stayed in</t>
+  </si>
+  <si>
+    <t>I would give this nauseating excuse of a motel no rating if I could.  My husband booked this placed because of the decent rating on tripadvisor and we will never use it again.  Drug dealers, pimps, and prostitutes were seen while we stayed there.  Long black hairs all over our supposedly cleaned bathroom.  My husband refused to sleep under the covers for fear of the diseases he might catch.  We will NEVER stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r162753268-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>162753268</t>
+  </si>
+  <si>
+    <t>06/02/2013</t>
+  </si>
+  <si>
+    <t>Spend the extra money and stay elsewhere</t>
+  </si>
+  <si>
+    <t>My wife and I were looking for an affordable place to stay while visiting Knott's for a couple days. when we found this place, we thought it was perfect. It is within walking distance to the park and it is one of the lowest priced hotel/motel options in the area. Our experience was anything but perfect. It may seem like a good deal, but spend a few extra dollars and stay somewhere else.
+First off, let me start by saying that we have stayed in all classes of hotels and motels, from 5 star luxury to the now out of business Glass Pool Inn in Las Vegas (it seemed like a funny idea at the time). One of my favorite low budget places to stay when I go to Vegas to this day is the Motel 6 off of Tropicana, so I am by no means "too good for this place". That being said, I do have minimum standards. This place fell way short of those standards. 
+The front desk lady was pleasant enough, but the lobby reeked of curry. It was very strong and unpleasant. Fair enough, it's not in my room, so I can overlook the smell in the lobby. After checking in and walking onto the property past the front desk, I was immediately greeted by an alleged prostitute who asked me if I needed any help. I politely declined her help and proceeded back to the...My wife and I were looking for an affordable place to stay while visiting Knott's for a couple days. when we found this place, we thought it was perfect. It is within walking distance to the park and it is one of the lowest priced hotel/motel options in the area. Our experience was anything but perfect. It may seem like a good deal, but spend a few extra dollars and stay somewhere else.First off, let me start by saying that we have stayed in all classes of hotels and motels, from 5 star luxury to the now out of business Glass Pool Inn in Las Vegas (it seemed like a funny idea at the time). One of my favorite low budget places to stay when I go to Vegas to this day is the Motel 6 off of Tropicana, so I am by no means "too good for this place". That being said, I do have minimum standards. This place fell way short of those standards. The front desk lady was pleasant enough, but the lobby reeked of curry. It was very strong and unpleasant. Fair enough, it's not in my room, so I can overlook the smell in the lobby. After checking in and walking onto the property past the front desk, I was immediately greeted by an alleged prostitute who asked me if I needed any help. I politely declined her help and proceeded back to the car to gather up the family. On the way up to our room, we passed by a group of men that were loitering around the property. I can't say for sure that they were pimps or drug dealers, but if they weren't, they were sure wearing the uniforms. Seriously, this place appears to have a problem with pimps, prostitutes, drug dealers, and by the looks of some of the residents (possible long term residents, not sure), drug addicts. There appears to be pimps literally hanging out in the parking lot or around the hotel property. Needless to say, we didn't feel safe at all. when we got to the room, we were met with a dirty bathroom. It was cleaned by the staff, there was even a band over the toilet that said it was 'sanitized for your safety'. However, there were also black hairs all over the bathroom, including on the toilet that was 'sanitized for your safety', in the bathtub, and on the sink and floor. The rest of the room wasn't any better. All of the surfaces weren't dirty, but they also didn't scream clean, if you know what I mean. The beds were the worst thing about the room. We had a 2 queen room. One for the kids and one for the wife and I. My wife described it best when she said that it felt, and sounded, like the beds were wrapped in a trash bag. We had a very uncomfortable night sleep and awoke early to spend the day at Knott's. Our original plan was to leave the car in the hotel parking lot and walk to Knott's, but after realizing that we would have to leave all of our stuff in the car since we were checking out, and considering the clientele that we saw hanging around the property, we decided it was in our best interest to drive across the street and pay $15 to park at Knott's. That was $15 that I had expected to save by staying at a hotel across the street from the park. Oh well, it's a discount for pace of mind.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I were looking for an affordable place to stay while visiting Knott's for a couple days. when we found this place, we thought it was perfect. It is within walking distance to the park and it is one of the lowest priced hotel/motel options in the area. Our experience was anything but perfect. It may seem like a good deal, but spend a few extra dollars and stay somewhere else.
+First off, let me start by saying that we have stayed in all classes of hotels and motels, from 5 star luxury to the now out of business Glass Pool Inn in Las Vegas (it seemed like a funny idea at the time). One of my favorite low budget places to stay when I go to Vegas to this day is the Motel 6 off of Tropicana, so I am by no means "too good for this place". That being said, I do have minimum standards. This place fell way short of those standards. 
+The front desk lady was pleasant enough, but the lobby reeked of curry. It was very strong and unpleasant. Fair enough, it's not in my room, so I can overlook the smell in the lobby. After checking in and walking onto the property past the front desk, I was immediately greeted by an alleged prostitute who asked me if I needed any help. I politely declined her help and proceeded back to the...My wife and I were looking for an affordable place to stay while visiting Knott's for a couple days. when we found this place, we thought it was perfect. It is within walking distance to the park and it is one of the lowest priced hotel/motel options in the area. Our experience was anything but perfect. It may seem like a good deal, but spend a few extra dollars and stay somewhere else.First off, let me start by saying that we have stayed in all classes of hotels and motels, from 5 star luxury to the now out of business Glass Pool Inn in Las Vegas (it seemed like a funny idea at the time). One of my favorite low budget places to stay when I go to Vegas to this day is the Motel 6 off of Tropicana, so I am by no means "too good for this place". That being said, I do have minimum standards. This place fell way short of those standards. The front desk lady was pleasant enough, but the lobby reeked of curry. It was very strong and unpleasant. Fair enough, it's not in my room, so I can overlook the smell in the lobby. After checking in and walking onto the property past the front desk, I was immediately greeted by an alleged prostitute who asked me if I needed any help. I politely declined her help and proceeded back to the car to gather up the family. On the way up to our room, we passed by a group of men that were loitering around the property. I can't say for sure that they were pimps or drug dealers, but if they weren't, they were sure wearing the uniforms. Seriously, this place appears to have a problem with pimps, prostitutes, drug dealers, and by the looks of some of the residents (possible long term residents, not sure), drug addicts. There appears to be pimps literally hanging out in the parking lot or around the hotel property. Needless to say, we didn't feel safe at all. when we got to the room, we were met with a dirty bathroom. It was cleaned by the staff, there was even a band over the toilet that said it was 'sanitized for your safety'. However, there were also black hairs all over the bathroom, including on the toilet that was 'sanitized for your safety', in the bathtub, and on the sink and floor. The rest of the room wasn't any better. All of the surfaces weren't dirty, but they also didn't scream clean, if you know what I mean. The beds were the worst thing about the room. We had a 2 queen room. One for the kids and one for the wife and I. My wife described it best when she said that it felt, and sounded, like the beds were wrapped in a trash bag. We had a very uncomfortable night sleep and awoke early to spend the day at Knott's. Our original plan was to leave the car in the hotel parking lot and walk to Knott's, but after realizing that we would have to leave all of our stuff in the car since we were checking out, and considering the clientele that we saw hanging around the property, we decided it was in our best interest to drive across the street and pay $15 to park at Knott's. That was $15 that I had expected to save by staying at a hotel across the street from the park. Oh well, it's a discount for pace of mind.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r155213004-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>155213004</t>
+  </si>
+  <si>
+    <t>03/20/2013</t>
+  </si>
+  <si>
+    <t>Nice motel. Sketchy guests</t>
+  </si>
+  <si>
+    <t>We found this motel for our vacation in a motels.com search and couldn't beat the price. Upon first impression the motel seemed decent enough and the location is perfect. My kids were excited that the pool was open but as we walked past to get to our room there was a huge party/bbq taking place right beside it with loud, vulgar music blaring and a lot of rough housing in the pool itsw. So I sadly had to ban my kids from the pool area. The room was clean and the bathroom seemed to have been updated. The bed was quite comfortable. We all feel asleep easily. Until about 3 am when we were awakened by what seemed to be a domestic dispute in the room next door. The yelling, screaming, crying quickly escalated into a full on brawl with furniture being thrown, things or people loudly being flung into the wall and physical violence. My kids were horrified, as was I. It lasted a good 30 mins total. If i hadn't been leaving that morning early for Disneyland I would have left then and there. Better security would be a definite plus!MoreShow less</t>
+  </si>
+  <si>
+    <t>We found this motel for our vacation in a motels.com search and couldn't beat the price. Upon first impression the motel seemed decent enough and the location is perfect. My kids were excited that the pool was open but as we walked past to get to our room there was a huge party/bbq taking place right beside it with loud, vulgar music blaring and a lot of rough housing in the pool itsw. So I sadly had to ban my kids from the pool area. The room was clean and the bathroom seemed to have been updated. The bed was quite comfortable. We all feel asleep easily. Until about 3 am when we were awakened by what seemed to be a domestic dispute in the room next door. The yelling, screaming, crying quickly escalated into a full on brawl with furniture being thrown, things or people loudly being flung into the wall and physical violence. My kids were horrified, as was I. It lasted a good 30 mins total. If i hadn't been leaving that morning early for Disneyland I would have left then and there. Better security would be a definite plus!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r154402787-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>154402787</t>
+  </si>
+  <si>
+    <t>03/12/2013</t>
+  </si>
+  <si>
+    <t>Find somewhere else to stay.</t>
+  </si>
+  <si>
+    <t>After reading the reviews I thought this place must be nice. The woman at the front desk was pleasant and efficient. I was helped quickly and given my key. When I walked into my room I was shocked and wanting to run the other way. Nothing about this hotel is clean or remodeled. The sheets had stuff all over them. Luckily I had my own pillows and blankets. I truly want to ask for my money back so I can go elsewhere. The good reviews are very misleading. The only good thing is location for people that want to be close to Knotts or Medieval Times. I would never tell anyone to stay here. I would rather pay a little more to feel safe and have a clean room.MoreShow less</t>
+  </si>
+  <si>
+    <t>After reading the reviews I thought this place must be nice. The woman at the front desk was pleasant and efficient. I was helped quickly and given my key. When I walked into my room I was shocked and wanting to run the other way. Nothing about this hotel is clean or remodeled. The sheets had stuff all over them. Luckily I had my own pillows and blankets. I truly want to ask for my money back so I can go elsewhere. The good reviews are very misleading. The only good thing is location for people that want to be close to Knotts or Medieval Times. I would never tell anyone to stay here. I would rather pay a little more to feel safe and have a clean room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r151704649-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>151704649</t>
+  </si>
+  <si>
+    <t>02/08/2013</t>
+  </si>
+  <si>
+    <t>Location, Location, Location</t>
+  </si>
+  <si>
+    <t>No, this is not the Hyatt or Hilton or Hampton Inn. However, this hotel had clean rooms, comfortable beds, and you can hit Knott's Berry with a rock from the parking lot. We found it very handy to be able to came back midday and relax a little before attacking the park anew in the evening. I'm not sure if there is another hotel that I would consider to be in easy walking distance of the park, but I could be wrong. The continental breakfast, as one would imagine, is nothing to get excited about but they do have some juices, coffee, donuts, etc. out each morning. Overall, this place is a great value and I would certainly stay there againMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>No, this is not the Hyatt or Hilton or Hampton Inn. However, this hotel had clean rooms, comfortable beds, and you can hit Knott's Berry with a rock from the parking lot. We found it very handy to be able to came back midday and relax a little before attacking the park anew in the evening. I'm not sure if there is another hotel that I would consider to be in easy walking distance of the park, but I could be wrong. The continental breakfast, as one would imagine, is nothing to get excited about but they do have some juices, coffee, donuts, etc. out each morning. Overall, this place is a great value and I would certainly stay there againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r139609303-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>139609303</t>
+  </si>
+  <si>
+    <t>09/06/2012</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>It was end of summer! My kids wanted to go Knott's, we decide to check out the hotel and actual room before we book it, i learned not to rely on reviews completely. After checking a few hotels we decide to go to Rodeway Inn. The location was unbelievable, pool was very clean and inviting(kids loved it). The room and bathroom was clean as-well as the bed was very comfortable. The noise level, furniture and breakfast was average. Staff was very helpful, printed our e-tickets for Knott's and reserved a seat at Medieval Times. Which was a block away from the hotel. The overall stay at Rodeway Inn was a great experience and I will defiantly be back soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>It was end of summer! My kids wanted to go Knott's, we decide to check out the hotel and actual room before we book it, i learned not to rely on reviews completely. After checking a few hotels we decide to go to Rodeway Inn. The location was unbelievable, pool was very clean and inviting(kids loved it). The room and bathroom was clean as-well as the bed was very comfortable. The noise level, furniture and breakfast was average. Staff was very helpful, printed our e-tickets for Knott's and reserved a seat at Medieval Times. Which was a block away from the hotel. The overall stay at Rodeway Inn was a great experience and I will defiantly be back soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r136902792-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>136902792</t>
+  </si>
+  <si>
+    <t>08/11/2012</t>
+  </si>
+  <si>
+    <t>Not staying here again</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 nights, we chose it too be close to knotts &amp; yes it sure was but.. I would not reccamend this hotel! The rooms are old, run down, the walls are super thin!! You can hear everything outside your door! The pool is ok. I didn't like that there are no elevators, only outside concrete stairs. The tv entertainment center has deep scratches all over the front of it. The bed is not comfortable! The curtains were partially broken. The knobs in the so called mini kitchen were broken. The bathroom is extremely small! Overall we will not be staying here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r135789967-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>135789967</t>
+  </si>
+  <si>
+    <t>07/30/2012</t>
+  </si>
+  <si>
+    <t>This hotel needs a facelift.</t>
+  </si>
+  <si>
+    <t>We stayed here because of the rate &amp; location. The room was in great need of renovation. The restroom was the main problem. The walls were cracked and in need of paint. The sink was a wall hung sink which left no where to keep toiletries. The wi fi only worked outside and the public computer didn't work. Our room was adjacent to breakfast area so it was noisy early in a.m. The parking lot was also small and felt a bit unsafe. Would only recommend if you are on tight budget &amp; not very picky. I give it a 4 on a 1-10.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r127492930-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>127492930</t>
+  </si>
+  <si>
+    <t>04/08/2012</t>
+  </si>
+  <si>
+    <t>Terrific hotel, great location</t>
+  </si>
+  <si>
+    <t>I booked this hotel before I read the reviews. Boy, am I glad I did. It's true, this hotel is an older one but like my granddaughter said "Older doesn't mean bad"  The staff were friendly and helpful. The room was clean and the beds were comfortable. You can't beat the price or the location when going to Knotts.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r127335813-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>127335813</t>
+  </si>
+  <si>
+    <t>04/05/2012</t>
+  </si>
+  <si>
+    <t>Would NOT stay again</t>
+  </si>
+  <si>
+    <t>We stayed here based on Tripadvisor reviews.  Yikes.  The staff at the desk were not in the least friendly or helpful, none of them.  The entire entry area and check-in process is weird, leaving you feeling like there must be a lot of crime in the area.  The room was shabby, holes in the sheets, way out-of-date decor; small bathroom with no towel racks or fan and thin, cheap towels.  We even got to listen to someone dragging suitcases down the stairs in the wee hours.  Oh, skip the 'breakfast'.  I was embarrassed that I had selected this motel.  I have been all over Europe where small and modest can surprise you, but I felt like I hit bottom with this one. I am SURE we could have done better.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>We stayed here based on Tripadvisor reviews.  Yikes.  The staff at the desk were not in the least friendly or helpful, none of them.  The entire entry area and check-in process is weird, leaving you feeling like there must be a lot of crime in the area.  The room was shabby, holes in the sheets, way out-of-date decor; small bathroom with no towel racks or fan and thin, cheap towels.  We even got to listen to someone dragging suitcases down the stairs in the wee hours.  Oh, skip the 'breakfast'.  I was embarrassed that I had selected this motel.  I have been all over Europe where small and modest can surprise you, but I felt like I hit bottom with this one. I am SURE we could have done better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r122740074-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>122740074</t>
+  </si>
+  <si>
+    <t>01/07/2012</t>
+  </si>
+  <si>
+    <t>Run down facility, staff not helpful, but good location</t>
+  </si>
+  <si>
+    <t>We had a mixed experience at this place. Facility was run down with old carpets, old air conditioners and old appliances. Bathroom was tiny. But the beds were comfortable. The facility had many many posted warnings about stealing towels, soap or taking breakfast items out of the breakfast room. The lady on the reception desk was trying to help everyone, but I did not see her smiling once. On the other hand the location is great. It is right across from Knott Berry Farm and people visiting Knott Berry can just cross the road to get there without the hessel of driving or finding parking. It is close to highway and great restaurants. It also has a 24 hour subway besides it, so finding food cannot be an issue if you feel hungry in the middle of the night. There pool was cleaner than other similar facilities and I enjoyed it. Recommended for people visiting Knott Berry.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>We had a mixed experience at this place. Facility was run down with old carpets, old air conditioners and old appliances. Bathroom was tiny. But the beds were comfortable. The facility had many many posted warnings about stealing towels, soap or taking breakfast items out of the breakfast room. The lady on the reception desk was trying to help everyone, but I did not see her smiling once. On the other hand the location is great. It is right across from Knott Berry Farm and people visiting Knott Berry can just cross the road to get there without the hessel of driving or finding parking. It is close to highway and great restaurants. It also has a 24 hour subway besides it, so finding food cannot be an issue if you feel hungry in the middle of the night. There pool was cleaner than other similar facilities and I enjoyed it. Recommended for people visiting Knott Berry.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r121215457-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>121215457</t>
+  </si>
+  <si>
+    <t>11/29/2011</t>
+  </si>
+  <si>
+    <t>Very Clean, Very Friendly</t>
+  </si>
+  <si>
+    <t>I work at a choice hotel myself and thought this one was over the top outstanding. Housekeepers are nice. Rooms are decently priced. Front desk very friendly. Nice clean breakfast area. Great pool. Nothing bad to say at all. Went to Knotts and Medieval Times. Had a blast, came back to our cozy room after being in the cold all day, and took a nice hott shower then slept on the comfy bed. Awesome Vacation. 4 night stay. I go annually and will continue too. Thanks Guys!</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r120555454-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>120555454</t>
+  </si>
+  <si>
+    <t>11/13/2011</t>
+  </si>
+  <si>
+    <t>Good place if you just want to sleep</t>
+  </si>
+  <si>
+    <t>This is a good hotel, if you just want to sleep and shower. Did not take advantage of the amenities. Nice and close after a busy day at Knotts. Staff was friendly. Had to compilain because the pool closed at 11:00 and I had to call and complain about people in the jacuzzi after midnight, because they were loud and keeping us awake. Beds were a little too hard for my liking. Room was clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r120152006-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>120152006</t>
+  </si>
+  <si>
+    <t>11/04/2011</t>
+  </si>
+  <si>
+    <t>Closer than the Knotts Berry Farm car park!!!!</t>
+  </si>
+  <si>
+    <t>We booked for one night as we were going to Knotts Berry Farm.Great service - check in was at 3pm but they let us park there at 10am and check into our room with no additional charge!Parking is convient and closer to Knotts than its own car park!Rooms are comfortable with microwave and refridgerator! Perfect for a one night stay!It was a little unclean in the hallway but that was it our room was clean!Breakfast is just cereal, orange juice, bread and muffins but there are so many places to eat nearby it doesn't matter!Only annoying thing was that when we went down for breakfast our card had deactivated going back to our room - but it wasn't a problem we went downstairs and it was no problem at all.Check out was easy just handed cards back at check out time which is at 11amThe hotel has a pool but we didn't use it but our view from our window was the pool and it looked cleanAll in all perfect for a one night stayMoreShow less</t>
+  </si>
+  <si>
+    <t>We booked for one night as we were going to Knotts Berry Farm.Great service - check in was at 3pm but they let us park there at 10am and check into our room with no additional charge!Parking is convient and closer to Knotts than its own car park!Rooms are comfortable with microwave and refridgerator! Perfect for a one night stay!It was a little unclean in the hallway but that was it our room was clean!Breakfast is just cereal, orange juice, bread and muffins but there are so many places to eat nearby it doesn't matter!Only annoying thing was that when we went down for breakfast our card had deactivated going back to our room - but it wasn't a problem we went downstairs and it was no problem at all.Check out was easy just handed cards back at check out time which is at 11amThe hotel has a pool but we didn't use it but our view from our window was the pool and it looked cleanAll in all perfect for a one night stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r117999377-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>117999377</t>
+  </si>
+  <si>
+    <t>09/12/2011</t>
+  </si>
+  <si>
+    <t>Perfect for the theme park if you wont be in the room much.</t>
+  </si>
+  <si>
+    <t>We stayed one night, couldnt find our reservation, even though I showed them my email confirmation. Walls very thin..at night 9 pm ..our neighbor knocked on the door from our 2 year old crying because he had a fever.  Just a weird stay. I told the front desk to move us if the neighbor was bothered because our son was sick and we are from another state...also ac kept having problems staying on.  The room was cheap so we didnt expect much.  Neighbor complained about son crying cause he was trying to work and my only thought was why are you staying at a hotel directly accross the street from a theme park. We have 3 kids and a everyone was tired after a long day at a theme park.  There were several other hotels in the area with vacancy.  We stayed here for the location.  All staff were friendly and tried to be accomodating. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed one night, couldnt find our reservation, even though I showed them my email confirmation. Walls very thin..at night 9 pm ..our neighbor knocked on the door from our 2 year old crying because he had a fever.  Just a weird stay. I told the front desk to move us if the neighbor was bothered because our son was sick and we are from another state...also ac kept having problems staying on.  The room was cheap so we didnt expect much.  Neighbor complained about son crying cause he was trying to work and my only thought was why are you staying at a hotel directly accross the street from a theme park. We have 3 kids and a everyone was tired after a long day at a theme park.  There were several other hotels in the area with vacancy.  We stayed here for the location.  All staff were friendly and tried to be accomodating. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r116493344-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>116493344</t>
+  </si>
+  <si>
+    <t>08/09/2011</t>
+  </si>
+  <si>
+    <t>If you're taking the kids to Knott's...</t>
+  </si>
+  <si>
+    <t>Hello again, Trippers:  this is a belated review but well deserved.  I had the 7 year-old nephew down for Camp ZUJUBWA  (Zachary and Uncle John's Ultimate Bachelor Week-long Adventure) in late June and we'd decided to go to Knott's Berry Farm as part of the fun.  Having dealt with kids in the past, I know they all need their rest-time (this is why the wife &amp; I have Scooter the Cat, the Faithful Hairy Sidekick to this man-child that I am...).  The Rodeway is a must if you are taking the family to Knott's!!!  First of all, it is only a few minutes walk from the front gate; second of all (sorry, New Yawkers...) there is a Pink's Hot Dog Shop just outside the gate... best hot dogs in the WORLD!!!  Anyway, the hotel was clean, had a fridge and microwave, gloriously comfy beds and the most immaculately clean swimming pool I've ever seen in all my travels!... Sorry, Venetian in Las Vegas, but I have to be honest here!  It was perfect for bringing the little guy (and, yes, me too) back for a break from the park.  I must say "KUDOs" to Karen at the front desk; not only was she great during the reservation process, but when we got there, she had an early check-in available and took care of our every need (like I said: I was there with a 7 year-old... those of you with...Hello again, Trippers:  this is a belated review but well deserved.  I had the 7 year-old nephew down for Camp ZUJUBWA  (Zachary and Uncle John's Ultimate Bachelor Week-long Adventure) in late June and we'd decided to go to Knott's Berry Farm as part of the fun.  Having dealt with kids in the past, I know they all need their rest-time (this is why the wife &amp; I have Scooter the Cat, the Faithful Hairy Sidekick to this man-child that I am...).  The Rodeway is a must if you are taking the family to Knott's!!!  First of all, it is only a few minutes walk from the front gate; second of all (sorry, New Yawkers...) there is a Pink's Hot Dog Shop just outside the gate... best hot dogs in the WORLD!!!  Anyway, the hotel was clean, had a fridge and microwave, gloriously comfy beds and the most immaculately clean swimming pool I've ever seen in all my travels!... Sorry, Venetian in Las Vegas, but I have to be honest here!  It was perfect for bringing the little guy (and, yes, me too) back for a break from the park.  I must say "KUDOs" to Karen at the front desk; not only was she great during the reservation process, but when we got there, she had an early check-in available and took care of our every need (like I said: I was there with a 7 year-old... those of you with kids know what I mean).  Highly recommended if you ever plan a trip to Knott's.  Have I lied to you yet???????MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>Hello again, Trippers:  this is a belated review but well deserved.  I had the 7 year-old nephew down for Camp ZUJUBWA  (Zachary and Uncle John's Ultimate Bachelor Week-long Adventure) in late June and we'd decided to go to Knott's Berry Farm as part of the fun.  Having dealt with kids in the past, I know they all need their rest-time (this is why the wife &amp; I have Scooter the Cat, the Faithful Hairy Sidekick to this man-child that I am...).  The Rodeway is a must if you are taking the family to Knott's!!!  First of all, it is only a few minutes walk from the front gate; second of all (sorry, New Yawkers...) there is a Pink's Hot Dog Shop just outside the gate... best hot dogs in the WORLD!!!  Anyway, the hotel was clean, had a fridge and microwave, gloriously comfy beds and the most immaculately clean swimming pool I've ever seen in all my travels!... Sorry, Venetian in Las Vegas, but I have to be honest here!  It was perfect for bringing the little guy (and, yes, me too) back for a break from the park.  I must say "KUDOs" to Karen at the front desk; not only was she great during the reservation process, but when we got there, she had an early check-in available and took care of our every need (like I said: I was there with a 7 year-old... those of you with...Hello again, Trippers:  this is a belated review but well deserved.  I had the 7 year-old nephew down for Camp ZUJUBWA  (Zachary and Uncle John's Ultimate Bachelor Week-long Adventure) in late June and we'd decided to go to Knott's Berry Farm as part of the fun.  Having dealt with kids in the past, I know they all need their rest-time (this is why the wife &amp; I have Scooter the Cat, the Faithful Hairy Sidekick to this man-child that I am...).  The Rodeway is a must if you are taking the family to Knott's!!!  First of all, it is only a few minutes walk from the front gate; second of all (sorry, New Yawkers...) there is a Pink's Hot Dog Shop just outside the gate... best hot dogs in the WORLD!!!  Anyway, the hotel was clean, had a fridge and microwave, gloriously comfy beds and the most immaculately clean swimming pool I've ever seen in all my travels!... Sorry, Venetian in Las Vegas, but I have to be honest here!  It was perfect for bringing the little guy (and, yes, me too) back for a break from the park.  I must say "KUDOs" to Karen at the front desk; not only was she great during the reservation process, but when we got there, she had an early check-in available and took care of our every need (like I said: I was there with a 7 year-old... those of you with kids know what I mean).  Highly recommended if you ever plan a trip to Knott's.  Have I lied to you yet???????More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r115016857-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>115016857</t>
+  </si>
+  <si>
+    <t>07/04/2011</t>
+  </si>
+  <si>
+    <t>2 star quality for 1 star price</t>
+  </si>
+  <si>
+    <t>The folks at the front desk were pleasant and helpful. The room was cleaned every day of my stay. They give you a solid price for what you receive. Continental breakfast was just that with nice muffins and coffee. If you have a problem with these place, the problem is within you and unrealistic expectations. The only draw back was that the hallway was dirty. It is close to Knotts and alot of nice food places are just up the street. Any hotel I have stayed at has noise.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r93275410-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>93275410</t>
+  </si>
+  <si>
+    <t>01/16/2011</t>
+  </si>
+  <si>
+    <t>One of the Worst!</t>
+  </si>
+  <si>
+    <t>If you can get by the prostitutes, drunks,  and drug dealers and into the front desk area with it's bullet-proof glass, you still have time to change your mind.One of the worst hotel nightmares ever...and, it's really not across from Knott's Main gate...</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r82224934-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>82224934</t>
+  </si>
+  <si>
+    <t>10/05/2010</t>
+  </si>
+  <si>
+    <t>Perfect Stay for Price and Walking to Knott's Berry Farm</t>
+  </si>
+  <si>
+    <t>I was going to Knott's 'Scary' Farm for their annual Halloween Haunt and wanted a nice hotel with close walking distance. I've stayed before at the Knott's Resort which is very nice (I previously reviewed it here) and could have gotten a deal there for $90/night. I searched around and found this place. The same distance as the Knott's Resort Hotel, just at the north end of the park instead of the south and across the street. With my AAA discount I got it for $45/night.  It is a two-story indoor/outdoor property with ample free parking and a pool and hot tub. The room was advertised as having a refrigerator and microwave. Much to my surprise it was a FULL-size fridge with not only a microwave but also a full stove-top with oven and broiler! The room was pretty much whatyou would expect for a budget hotel. Queen bed with three pillows, clock-radio, an AC/Heating unit, an extra sink next to the stove with counter space along with the coffeemaker. The bathroom was basic (towels, shampoo, lotion soap, and women's sanitary items). A flat-panel tv with basic cable channels along with HBO's. The pool area isn't stocked with towels but you can get extras at the front desk. The ice machine and a drink vending machine are also near the pool. The lobby area also has some snack machines. The say they offer free Wi-Fi but I donly know it...I was going to Knott's 'Scary' Farm for their annual Halloween Haunt and wanted a nice hotel with close walking distance. I've stayed before at the Knott's Resort which is very nice (I previously reviewed it here) and could have gotten a deal there for $90/night. I searched around and found this place. The same distance as the Knott's Resort Hotel, just at the north end of the park instead of the south and across the street. With my AAA discount I got it for $45/night.  It is a two-story indoor/outdoor property with ample free parking and a pool and hot tub. The room was advertised as having a refrigerator and microwave. Much to my surprise it was a FULL-size fridge with not only a microwave but also a full stove-top with oven and broiler! The room was pretty much whatyou would expect for a budget hotel. Queen bed with three pillows, clock-radio, an AC/Heating unit, an extra sink next to the stove with counter space along with the coffeemaker. The bathroom was basic (towels, shampoo, lotion soap, and women's sanitary items). A flat-panel tv with basic cable channels along with HBO's. The pool area isn't stocked with towels but you can get extras at the front desk. The ice machine and a drink vending machine are also near the pool. The lobby area also has some snack machines. The say they offer free Wi-Fi but I donly know it it worked since I didn't bring my computer. The hotel has a computer &amp; printer they charge you for. They also offer a daily continental breakfast from 7 - 10 each morning. I didn't partake but it looked like cold cereal, milk, coffee and maybe some pasteries and maybe juice or tea. For food options there is a Subway ad an iHOP directly on either side of the property and a Claim Jumper, Quizno's and McDonald's directly across the street. Also numerous one-off eateris of every food type with a one block walk on both sides of the street. My favorite is a TGIFriday's about three blocks down directly across from the main entrance to Knott's ( and of course don't forget Mrs.Knott's Chicken DInner Restaurant and Pink's located in Knott's Marketplace.)For clean freaks the hotel wasn't the cleanest I've stayed in, but it wasn't overtly dirty. I would give it a B- or C. It didn't bother me but some 'clean-freaks' may be bothered. I was simply there to unwind Saturday night, spend 16 hours at Knott's th next day, and CRASH after 1:00AM the next day/night. Check-in and out was no problem. I've read some reviews about noise and unsavory people hanging out but I didn't really encounter this. The parking lot is jointy shared by the Hotel, iHOP, and the strip of stores next door led-off by Subway. There is a bar next to Subway so there always some people hanging out but they all seem to be doing their own thing at those businesses.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>I was going to Knott's 'Scary' Farm for their annual Halloween Haunt and wanted a nice hotel with close walking distance. I've stayed before at the Knott's Resort which is very nice (I previously reviewed it here) and could have gotten a deal there for $90/night. I searched around and found this place. The same distance as the Knott's Resort Hotel, just at the north end of the park instead of the south and across the street. With my AAA discount I got it for $45/night.  It is a two-story indoor/outdoor property with ample free parking and a pool and hot tub. The room was advertised as having a refrigerator and microwave. Much to my surprise it was a FULL-size fridge with not only a microwave but also a full stove-top with oven and broiler! The room was pretty much whatyou would expect for a budget hotel. Queen bed with three pillows, clock-radio, an AC/Heating unit, an extra sink next to the stove with counter space along with the coffeemaker. The bathroom was basic (towels, shampoo, lotion soap, and women's sanitary items). A flat-panel tv with basic cable channels along with HBO's. The pool area isn't stocked with towels but you can get extras at the front desk. The ice machine and a drink vending machine are also near the pool. The lobby area also has some snack machines. The say they offer free Wi-Fi but I donly know it...I was going to Knott's 'Scary' Farm for their annual Halloween Haunt and wanted a nice hotel with close walking distance. I've stayed before at the Knott's Resort which is very nice (I previously reviewed it here) and could have gotten a deal there for $90/night. I searched around and found this place. The same distance as the Knott's Resort Hotel, just at the north end of the park instead of the south and across the street. With my AAA discount I got it for $45/night.  It is a two-story indoor/outdoor property with ample free parking and a pool and hot tub. The room was advertised as having a refrigerator and microwave. Much to my surprise it was a FULL-size fridge with not only a microwave but also a full stove-top with oven and broiler! The room was pretty much whatyou would expect for a budget hotel. Queen bed with three pillows, clock-radio, an AC/Heating unit, an extra sink next to the stove with counter space along with the coffeemaker. The bathroom was basic (towels, shampoo, lotion soap, and women's sanitary items). A flat-panel tv with basic cable channels along with HBO's. The pool area isn't stocked with towels but you can get extras at the front desk. The ice machine and a drink vending machine are also near the pool. The lobby area also has some snack machines. The say they offer free Wi-Fi but I donly know it it worked since I didn't bring my computer. The hotel has a computer &amp; printer they charge you for. They also offer a daily continental breakfast from 7 - 10 each morning. I didn't partake but it looked like cold cereal, milk, coffee and maybe some pasteries and maybe juice or tea. For food options there is a Subway ad an iHOP directly on either side of the property and a Claim Jumper, Quizno's and McDonald's directly across the street. Also numerous one-off eateris of every food type with a one block walk on both sides of the street. My favorite is a TGIFriday's about three blocks down directly across from the main entrance to Knott's ( and of course don't forget Mrs.Knott's Chicken DInner Restaurant and Pink's located in Knott's Marketplace.)For clean freaks the hotel wasn't the cleanest I've stayed in, but it wasn't overtly dirty. I would give it a B- or C. It didn't bother me but some 'clean-freaks' may be bothered. I was simply there to unwind Saturday night, spend 16 hours at Knott's th next day, and CRASH after 1:00AM the next day/night. Check-in and out was no problem. I've read some reviews about noise and unsavory people hanging out but I didn't really encounter this. The parking lot is jointy shared by the Hotel, iHOP, and the strip of stores next door led-off by Subway. There is a bar next to Subway so there always some people hanging out but they all seem to be doing their own thing at those businesses.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r78286299-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>78286299</t>
+  </si>
+  <si>
+    <t>09/04/2010</t>
+  </si>
+  <si>
+    <t>Great Location, Great Service, Nice Pool</t>
+  </si>
+  <si>
+    <t>Hotel is located within walking distance to Knotts Berry Farms, Soak City and a great variety of restaurants.  I personally saw on three occasions the staff go above and beyond with their service.  The staff was very accomondating with our Youth Group.  The pool was very nice, one that our youth group enjoyed alot.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r74107726-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>74107726</t>
+  </si>
+  <si>
+    <t>08/06/2010</t>
+  </si>
+  <si>
+    <t>Best Place to stay when visiting Knott's</t>
+  </si>
+  <si>
+    <t>This is our favorite place to stay when visiting Knott's Berry Farm. It is within walking distance of the park. The prices are great. The room have been recently remodeled. We love that they have refrigerators and microwaves in the rooms which allows us to save money on food.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r73653040-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>73653040</t>
+  </si>
+  <si>
+    <t>08/03/2010</t>
+  </si>
+  <si>
+    <t>Cheap-but not worth risking your health or life!</t>
+  </si>
+  <si>
+    <t>I'll simply break it down. The type of people that stay here are (excluding myself) thugs, drug dealers and loud inconciderate families.  This motel was straight out of movie set in the ghetto. Upon arrival there were police doing a bust in a hotel room. Man next door beating his wife. Gangsters mad dogging in front of hotel. Drunk man with his pants down at the bottom of stairs -night manager did nothing about it. Creepy pedophile looking men facebooking in lobby. We found blood stains on sheets. Manager handed us new sheets like it's no big deal-btw change them yourself because housekeeping is gone. I found pubic hairs on bathroom floor. Housekeeping left there dirty rags on the toilet. The next day we found a toothbrush on our sink that wasn't even ours! This supposed non-smoking room smelled like a downtown Vegas casino.When I complained the manager acted like that's just the way it is! No apology. This all true- no exageration. Although the stay was cheap-it was not worth all the trouble and sense of danger.MoreShow less</t>
+  </si>
+  <si>
+    <t>I'll simply break it down. The type of people that stay here are (excluding myself) thugs, drug dealers and loud inconciderate families.  This motel was straight out of movie set in the ghetto. Upon arrival there were police doing a bust in a hotel room. Man next door beating his wife. Gangsters mad dogging in front of hotel. Drunk man with his pants down at the bottom of stairs -night manager did nothing about it. Creepy pedophile looking men facebooking in lobby. We found blood stains on sheets. Manager handed us new sheets like it's no big deal-btw change them yourself because housekeeping is gone. I found pubic hairs on bathroom floor. Housekeeping left there dirty rags on the toilet. The next day we found a toothbrush on our sink that wasn't even ours! This supposed non-smoking room smelled like a downtown Vegas casino.When I complained the manager acted like that's just the way it is! No apology. This all true- no exageration. Although the stay was cheap-it was not worth all the trouble and sense of danger.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r70686549-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>70686549</t>
+  </si>
+  <si>
+    <t>07/12/2010</t>
+  </si>
+  <si>
+    <t>Bed Bugs, enough said</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel with my very large family during our trip to Knott's Berry Farm and it was awful. This was the worst hotel i've ever stayed in and i want to warn others from making the same mistake. i have listed all the problems we had below. Please heed my warning.- Bed bugs- stained beds- stained carpet- saw a rat near the pool- mildew in the bathroom- musty smell- non-heated pool even though the online description claims heated pool- non-adjustable hot tub- 1 out of 2 barbeques did not work- sketchy people living at the hotel- broken balcony tiles</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r50384745-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>50384745</t>
+  </si>
+  <si>
+    <t>11/30/2009</t>
+  </si>
+  <si>
+    <t>Thanksgiving at Knotts</t>
+  </si>
+  <si>
+    <t>We stayed only one night, using rewards points for the free night. It was Thanksgiving day, and we arrived about 11 AM so we could spend the day at Knotts Berry Farm. I checked at the front desk to let them know we had arrived and will be parking in their lot (its free) and wouldn't need the room until the evening. He said no problem and our room was ready anyway. It is a very short walk into the park, which is great. The room were basic, but more than OK. Updated bathrooms and some areas of the hotel were currently having new carpeting installed.  As with most choice hotels the breakfast is just toast, cereal coffee, but we don't use it anyway so no big deal.  Only one negative: we had to call down to get the password for WiFi, but our phone didn't work. We called on our cell phone and the desk started calling the room and the phone we couldn't answer kept ringing and ringing. We had to call them twice on cell asking them to stop.Checkout was fast and desk was friendly enough.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>We stayed only one night, using rewards points for the free night. It was Thanksgiving day, and we arrived about 11 AM so we could spend the day at Knotts Berry Farm. I checked at the front desk to let them know we had arrived and will be parking in their lot (its free) and wouldn't need the room until the evening. He said no problem and our room was ready anyway. It is a very short walk into the park, which is great. The room were basic, but more than OK. Updated bathrooms and some areas of the hotel were currently having new carpeting installed.  As with most choice hotels the breakfast is just toast, cereal coffee, but we don't use it anyway so no big deal.  Only one negative: we had to call down to get the password for WiFi, but our phone didn't work. We called on our cell phone and the desk started calling the room and the phone we couldn't answer kept ringing and ringing. We had to call them twice on cell asking them to stop.Checkout was fast and desk was friendly enough.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r44078200-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>44078200</t>
+  </si>
+  <si>
+    <t>09/24/2009</t>
+  </si>
+  <si>
+    <t>I should have checked the room before we signed up for the night...but it was too late!</t>
+  </si>
+  <si>
+    <t>I think this hotel was rated higher than it should have been.Pros:Totally close to Knott's Berry farm, and restaurants (Claim Jumper, Subway), easy walking distance.Surprisingly comfortable bed.Staff gave us a good price and even better if we would have accepted a second night.Free parkingCons:Stains on the side of the mattress, some type of purple liquid.Coffee table was totally dirty and had kids hand prints, goo and cup ringmarks all over it,I figure if they are too absent minded to wipe down the coffee table what else did they skimp on too?Musky smell when we opened the door.Old school, out dated bathroom with a poor paint job and broken parts/wall fixtures.Dirty and slightly damp carpet.I swore to myself I wasn't going to stay in a hotel like this ever again, unfortunately my husband made the arrangements and we stuck it out for one night. It's not that bad, if you are broke, but if you can afford $15-$25 more for a nicer place you probably should and Thank yourself for it later!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>I think this hotel was rated higher than it should have been.Pros:Totally close to Knott's Berry farm, and restaurants (Claim Jumper, Subway), easy walking distance.Surprisingly comfortable bed.Staff gave us a good price and even better if we would have accepted a second night.Free parkingCons:Stains on the side of the mattress, some type of purple liquid.Coffee table was totally dirty and had kids hand prints, goo and cup ringmarks all over it,I figure if they are too absent minded to wipe down the coffee table what else did they skimp on too?Musky smell when we opened the door.Old school, out dated bathroom with a poor paint job and broken parts/wall fixtures.Dirty and slightly damp carpet.I swore to myself I wasn't going to stay in a hotel like this ever again, unfortunately my husband made the arrangements and we stuck it out for one night. It's not that bad, if you are broke, but if you can afford $15-$25 more for a nicer place you probably should and Thank yourself for it later!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r34100673-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>34100673</t>
+  </si>
+  <si>
+    <t>07/07/2009</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>We chose to stay here due to its location near Knotts Berry Farm and the Medieval Times and Dinner show. Very short walk to both, in fact you could see parts of Knotts from the carpark. Free carparking as well.Room was adequate but a bit dark. Spa was nice. Service was average. Difficult to understand the receptionist, probably due to our accents and theirs.</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r26616835-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>26616835</t>
+  </si>
+  <si>
+    <t>03/22/2009</t>
+  </si>
+  <si>
+    <t>One of our worst hotel experiences ever!</t>
+  </si>
+  <si>
+    <t>I booked three rooms via online booking service for ourselves and two other couples for a day at Knott's Berry Farm. With confirmations in hand one friend arrived before us and was told there were no reservations but they would book three "friends" who already had reservations elsewhere and "honor" our reservations if we paid them directly. Not wanting to pay twice I called our booking service who insisted the rooms were confirmed. After being transferred three times and spending an hour and a half on the phone with them they finally agreed to refund my money within ten days.
+We then paid this hotel for rooms at the same price! Had I to do it over again I would have gone elsewhere but we were tired, upset and hungry. 
+The rooms were supposedly "upgraded" to kitchenettes which meant there was a fridge, micro and sink on one wall. We had to unplug the fridge in order to sleep as did one of our friends. The bed was hard as a rock with miniature pillows - one good thing was we immediately got additional pillows when asked. 
+The smell was awful in the hallways - like 20-year old smoke - although the rooms were marked non-smoking you could tell a lot of smoking still went on in the hallways. Fairly new carpeting helped the room itself smell better. One of our friends couldn't lock the back window and our back...I booked three rooms via online booking service for ourselves and two other couples for a day at Knott's Berry Farm. With confirmations in hand one friend arrived before us and was told there were no reservations but they would book three "friends" who already had reservations elsewhere and "honor" our reservations if we paid them directly. Not wanting to pay twice I called our booking service who insisted the rooms were confirmed. After being transferred three times and spending an hour and a half on the phone with them they finally agreed to refund my money within ten days.We then paid this hotel for rooms at the same price! Had I to do it over again I would have gone elsewhere but we were tired, upset and hungry. The rooms were supposedly "upgraded" to kitchenettes which meant there was a fridge, micro and sink on one wall. We had to unplug the fridge in order to sleep as did one of our friends. The bed was hard as a rock with miniature pillows - one good thing was we immediately got additional pillows when asked. The smell was awful in the hallways - like 20-year old smoke - although the rooms were marked non-smoking you could tell a lot of smoking still went on in the hallways. Fairly new carpeting helped the room itself smell better. One of our friends couldn't lock the back window and our back window looked out on a cinder block wall. At 2:30 a.m. the people next to us decided to either come back or wake up and talk very loudly - we called the front desk and finally got some quiet. Our friends, whose rooms were not near us - had similar experiences with crying babies and arguing people. Because the price was cheap I was initially concerned but  I read the reviews before we booked it and they seemed to describe a totally different place! The towels were small and very scratchy although the bathrooms had new granite counters and tub enclosures - perhaps they are trying to renovate? We didn't stay for the breakfast but all of us were very exhausted the next morning due to not being able to get a good night's sleep the night before.Sadly we realized that several nicer hotels in the area had rooms at the same or better prices.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>I booked three rooms via online booking service for ourselves and two other couples for a day at Knott's Berry Farm. With confirmations in hand one friend arrived before us and was told there were no reservations but they would book three "friends" who already had reservations elsewhere and "honor" our reservations if we paid them directly. Not wanting to pay twice I called our booking service who insisted the rooms were confirmed. After being transferred three times and spending an hour and a half on the phone with them they finally agreed to refund my money within ten days.
+We then paid this hotel for rooms at the same price! Had I to do it over again I would have gone elsewhere but we were tired, upset and hungry. 
+The rooms were supposedly "upgraded" to kitchenettes which meant there was a fridge, micro and sink on one wall. We had to unplug the fridge in order to sleep as did one of our friends. The bed was hard as a rock with miniature pillows - one good thing was we immediately got additional pillows when asked. 
+The smell was awful in the hallways - like 20-year old smoke - although the rooms were marked non-smoking you could tell a lot of smoking still went on in the hallways. Fairly new carpeting helped the room itself smell better. One of our friends couldn't lock the back window and our back...I booked three rooms via online booking service for ourselves and two other couples for a day at Knott's Berry Farm. With confirmations in hand one friend arrived before us and was told there were no reservations but they would book three "friends" who already had reservations elsewhere and "honor" our reservations if we paid them directly. Not wanting to pay twice I called our booking service who insisted the rooms were confirmed. After being transferred three times and spending an hour and a half on the phone with them they finally agreed to refund my money within ten days.We then paid this hotel for rooms at the same price! Had I to do it over again I would have gone elsewhere but we were tired, upset and hungry. The rooms were supposedly "upgraded" to kitchenettes which meant there was a fridge, micro and sink on one wall. We had to unplug the fridge in order to sleep as did one of our friends. The bed was hard as a rock with miniature pillows - one good thing was we immediately got additional pillows when asked. The smell was awful in the hallways - like 20-year old smoke - although the rooms were marked non-smoking you could tell a lot of smoking still went on in the hallways. Fairly new carpeting helped the room itself smell better. One of our friends couldn't lock the back window and our back window looked out on a cinder block wall. At 2:30 a.m. the people next to us decided to either come back or wake up and talk very loudly - we called the front desk and finally got some quiet. Our friends, whose rooms were not near us - had similar experiences with crying babies and arguing people. Because the price was cheap I was initially concerned but  I read the reviews before we booked it and they seemed to describe a totally different place! The towels were small and very scratchy although the bathrooms had new granite counters and tub enclosures - perhaps they are trying to renovate? We didn't stay for the breakfast but all of us were very exhausted the next morning due to not being able to get a good night's sleep the night before.Sadly we realized that several nicer hotels in the area had rooms at the same or better prices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r26612209-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>26612209</t>
+  </si>
+  <si>
+    <t>Not Recommended</t>
+  </si>
+  <si>
+    <t>Our family of 5 stayed at this hotel, which is close to Knotts Berry Farm.  The positive was they had a refrigerator and microwave, but the negatives much outweighed the positives.  We regularly stay at budget hotels, so we are not picky.  The standard items left in the rooms after housekeeping were not left and we needed to ask the front desk each day we were there (soap, towels, coffee).  The toilet ran constantly, which made a loud noise.  They fixed it quickly, but then it did not flush.  We settled for the loud noise.  The pillows were extremely fat and hard, which were impossible to use, especially for our children.  It took 2 days to get useable ones.  One of our blankets had several burn holes it it and the bathroom was not clean.  We watched tv in the evenings, which had bad reception with lines running up and down.  Breakfast consisted of small muffins, slices of bread in baggies and plain cheerios and plain corn flakes.  Juice and coffee were also provided.  One of our biggest concerns was the number of questionable persons hanging out in the parking lot.  Some on foot and some in their cars, just sitting.  We will stay at the Knotts Berry Farm Resort next time, which was the same cost.  We would not recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our family of 5 stayed at this hotel, which is close to Knotts Berry Farm.  The positive was they had a refrigerator and microwave, but the negatives much outweighed the positives.  We regularly stay at budget hotels, so we are not picky.  The standard items left in the rooms after housekeeping were not left and we needed to ask the front desk each day we were there (soap, towels, coffee).  The toilet ran constantly, which made a loud noise.  They fixed it quickly, but then it did not flush.  We settled for the loud noise.  The pillows were extremely fat and hard, which were impossible to use, especially for our children.  It took 2 days to get useable ones.  One of our blankets had several burn holes it it and the bathroom was not clean.  We watched tv in the evenings, which had bad reception with lines running up and down.  Breakfast consisted of small muffins, slices of bread in baggies and plain cheerios and plain corn flakes.  Juice and coffee were also provided.  One of our biggest concerns was the number of questionable persons hanging out in the parking lot.  Some on foot and some in their cars, just sitting.  We will stay at the Knotts Berry Farm Resort next time, which was the same cost.  We would not recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r25332931-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>25332931</t>
+  </si>
+  <si>
+    <t>02/28/2009</t>
+  </si>
+  <si>
+    <t>Friendly staff</t>
+  </si>
+  <si>
+    <t>My family stayed At the Roadway Inn from February 11, 2009 to February 22, and couldn't say enough about the friendliness of the staff, whether it be the woman in the morning or the gentleman in the evening. Nearly all my requests, from pillows, a pen, to some garbage bags for trash or wet suits was taken care of with cheerful assistance.My biggest concern going in was the neighborhood. I found the location to be overall safe. There was one time my family was coming home late from Knott's Berry Farm and there were some young men hanging out near the bus stop. I was a little concerned, but there is a lot of foot traffic in the area and there was no incident.The rooms were a great value for the price of $50 (including tax). Call direct and they might give you a better price than on the net.  The continental breakfast is solid. It isn't a buffet, but it is adequate. Cereal, good juice, excellent coffee, bread for toast and muffins. The coffee cups are small, so get one from the gas station and use it the next morning. A sign says don't take the food to the room, but not drinks. Nice lounge area as well. The channels offered were a perfect amount. I would return to this motel in a heartbeat.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>My family stayed At the Roadway Inn from February 11, 2009 to February 22, and couldn't say enough about the friendliness of the staff, whether it be the woman in the morning or the gentleman in the evening. Nearly all my requests, from pillows, a pen, to some garbage bags for trash or wet suits was taken care of with cheerful assistance.My biggest concern going in was the neighborhood. I found the location to be overall safe. There was one time my family was coming home late from Knott's Berry Farm and there were some young men hanging out near the bus stop. I was a little concerned, but there is a lot of foot traffic in the area and there was no incident.The rooms were a great value for the price of $50 (including tax). Call direct and they might give you a better price than on the net.  The continental breakfast is solid. It isn't a buffet, but it is adequate. Cereal, good juice, excellent coffee, bread for toast and muffins. The coffee cups are small, so get one from the gas station and use it the next morning. A sign says don't take the food to the room, but not drinks. Nice lounge area as well. The channels offered were a perfect amount. I would return to this motel in a heartbeat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r19671588-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>19671588</t>
+  </si>
+  <si>
+    <t>09/02/2008</t>
+  </si>
+  <si>
+    <t>No complaints</t>
+  </si>
+  <si>
+    <t>For the price, a good clean place with adequate rooms and a reason.able level of facilities, Yes, some of the furnishings are showing their age but the staff keep the place neat and tidy. Very quick and easy check in/out and all staff friendly and helpful.IHOP next door for breakfast and Claim Jumper over the road for burgers/ribs etc. The Italian round the corner (Henleys) a little dissapointing but not dreadful</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r17889076-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>17889076</t>
+  </si>
+  <si>
+    <t>07/14/2008</t>
+  </si>
+  <si>
+    <t>Nice place!</t>
+  </si>
+  <si>
+    <t>Pros:
+Clean room, friendly staff, housekeeping was great, pool and Jacuzzi clean and available any time, ice and drink machine on site.
+Cons: The rooms are kind of old. Wall outlets, and closet, though safe, looked their age. Parking area is small and cramped, lucky to get a space if you come back late at night. We always managed though!
+Like people have said, this place is about a 10 minute walk from Knott's Berry Farm max. There's an IHOP, and Subway next door. There's also a small bar. If you drive some miles from the hotel on either side, you'll find donut shops, Jack In The Box, asian food, and JUAN POLLO (a must try).
+There is much to explore in the area. That's a given because you're in Southern California
+One other bad thing, I didn't find much favor with continental breakfast. Two types of cereal are offered, as is juice and toast. The cereal I got was OK until I pored the milk in. The milk was on the verge of spoiling, it had that sour taste to it! Also, the orange juice wasn't great either. Cartons of Donald Duck brand OJ were in the trash, which is fine, but it had been watered down. Yuck.
+If you have to stay in Anaheim, Buena Park, or any of the surrounding cities, I HIGHLY RECOMMEND this motel. It's very nice and clean, and the area is safe. Trust...Pros:Clean room, friendly staff, housekeeping was great, pool and Jacuzzi clean and available any time, ice and drink machine on site.Cons: The rooms are kind of old. Wall outlets, and closet, though safe, looked their age. Parking area is small and cramped, lucky to get a space if you come back late at night. We always managed though!Like people have said, this place is about a 10 minute walk from Knott's Berry Farm max. There's an IHOP, and Subway next door. There's also a small bar. If you drive some miles from the hotel on either side, you'll find donut shops, Jack In The Box, asian food, and JUAN POLLO (a must try).There is much to explore in the area. That's a given because you're in Southern CaliforniaOne other bad thing, I didn't find much favor with continental breakfast. Two types of cereal are offered, as is juice and toast. The cereal I got was OK until I pored the milk in. The milk was on the verge of spoiling, it had that sour taste to it! Also, the orange juice wasn't great either. Cartons of Donald Duck brand OJ were in the trash, which is fine, but it had been watered down. Yuck.If you have to stay in Anaheim, Buena Park, or any of the surrounding cities, I HIGHLY RECOMMEND this motel. It's very nice and clean, and the area is safe. Trust me. As a 24 year resident of Los Angeles county, believe me when I say you could do A LOT worse than this city and this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>Pros:
+Clean room, friendly staff, housekeeping was great, pool and Jacuzzi clean and available any time, ice and drink machine on site.
+Cons: The rooms are kind of old. Wall outlets, and closet, though safe, looked their age. Parking area is small and cramped, lucky to get a space if you come back late at night. We always managed though!
+Like people have said, this place is about a 10 minute walk from Knott's Berry Farm max. There's an IHOP, and Subway next door. There's also a small bar. If you drive some miles from the hotel on either side, you'll find donut shops, Jack In The Box, asian food, and JUAN POLLO (a must try).
+There is much to explore in the area. That's a given because you're in Southern California
+One other bad thing, I didn't find much favor with continental breakfast. Two types of cereal are offered, as is juice and toast. The cereal I got was OK until I pored the milk in. The milk was on the verge of spoiling, it had that sour taste to it! Also, the orange juice wasn't great either. Cartons of Donald Duck brand OJ were in the trash, which is fine, but it had been watered down. Yuck.
+If you have to stay in Anaheim, Buena Park, or any of the surrounding cities, I HIGHLY RECOMMEND this motel. It's very nice and clean, and the area is safe. Trust...Pros:Clean room, friendly staff, housekeeping was great, pool and Jacuzzi clean and available any time, ice and drink machine on site.Cons: The rooms are kind of old. Wall outlets, and closet, though safe, looked their age. Parking area is small and cramped, lucky to get a space if you come back late at night. We always managed though!Like people have said, this place is about a 10 minute walk from Knott's Berry Farm max. There's an IHOP, and Subway next door. There's also a small bar. If you drive some miles from the hotel on either side, you'll find donut shops, Jack In The Box, asian food, and JUAN POLLO (a must try).There is much to explore in the area. That's a given because you're in Southern CaliforniaOne other bad thing, I didn't find much favor with continental breakfast. Two types of cereal are offered, as is juice and toast. The cereal I got was OK until I pored the milk in. The milk was on the verge of spoiling, it had that sour taste to it! Also, the orange juice wasn't great either. Cartons of Donald Duck brand OJ were in the trash, which is fine, but it had been watered down. Yuck.If you have to stay in Anaheim, Buena Park, or any of the surrounding cities, I HIGHLY RECOMMEND this motel. It's very nice and clean, and the area is safe. Trust me. As a 24 year resident of Los Angeles county, believe me when I say you could do A LOT worse than this city and this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r17416037-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>17416037</t>
+  </si>
+  <si>
+    <t>07/01/2008</t>
+  </si>
+  <si>
+    <t>A clean and decent budget motel</t>
+  </si>
+  <si>
+    <t>My family and I stayed at the Rodeway Inn in Buena Park for 2 nights at the end of June.  I booked the room directly through the property on their website and with a discount, paid $65.00 per night not including taxes or fees.
+When booking, I had asked to have a non-smoking room on the top floor away from noise.  The manager took this into consideration and gave us such a room.  He was pleasant and the only person in the motel that I talked to while we were there.
+It had 2 queen sized beds, a full sized closet, an armoire with 3 drawers and a good size TV.  There was a desk in the room, a desk chair, another chair that reminded me of something that would go with a kitchenette set, a heating/cooling window unit, lamps, a small refrigerator, a small microwave, luggage rack, and coffee maker.
+The bathroom was nice sized with a long countertop, a hair dryer, towels and travel-sized toiletries.  The shower/tub was clean and mildew free and looked on the newer side.
+The carpet was dark green and looked fairly new.  However, as with all hotels and motels, it goes without saying that you should be prepared to wind up with dirty feet or dirty socks from all of the other people who have walked on the carpet with their dirty shoes.  The decor was pleasant, nothing special, but everything was clean...My family and I stayed at the Rodeway Inn in Buena Park for 2 nights at the end of June.  I booked the room directly through the property on their website and with a discount, paid $65.00 per night not including taxes or fees.When booking, I had asked to have a non-smoking room on the top floor away from noise.  The manager took this into consideration and gave us such a room.  He was pleasant and the only person in the motel that I talked to while we were there.It had 2 queen sized beds, a full sized closet, an armoire with 3 drawers and a good size TV.  There was a desk in the room, a desk chair, another chair that reminded me of something that would go with a kitchenette set, a heating/cooling window unit, lamps, a small refrigerator, a small microwave, luggage rack, and coffee maker.The bathroom was nice sized with a long countertop, a hair dryer, towels and travel-sized toiletries.  The shower/tub was clean and mildew free and looked on the newer side.The carpet was dark green and looked fairly new.  However, as with all hotels and motels, it goes without saying that you should be prepared to wind up with dirty feet or dirty socks from all of the other people who have walked on the carpet with their dirty shoes.  The decor was pleasant, nothing special, but everything was clean which is more important to me.The bed mattresses were new looking too.  And there were NO bed bugs in our room.  The linens were fresh and untorn, except for the fuzzy blankets that seem to be a staple in this caliber of hotel.  It looked like the washing machine or dryer had taken some of the fuzz in chunks out of the blanket.  Other than that, we had no complaints about the beds.The hotel itself sits in a parking lot on Beach Blvd and faces west.  La Palma Avenue is on the north side and the Buena Park Mall is less than a half mile to the east away also on La Palma Ave.  Knott's Berry Farm is on the opposite corner from the Rodeway Inn, a nice Claim Jumper is directly across the street, IHOP, Subway and Washington Mutual Bank are less than a minute away by foot.  Also, there is McDonald's, Starbuck's, Medieval Times, Pirate Adventure, PoFolk's, Ripley's Believe It Or Not Museum also on Beach Blvd, just north of the motel.  We walked to and from Knott's on a busy Saturday without any problems.The motel offered a complimentary breakfast with the typical cereal and juice set up, served in their eating area next to the lobby.  Signs asked that the food not be taken up to the rooms, which is odd considering that the motel allows food to be stored and cooked in the rooms.  There was a courtyard with a pool and jacuzzi which were being used by other guests and they looked clean but we did not use them ourselves.All in all, we were not disappointed.  We heard no loud noises and didn't smell any strange smells or experience anything out of the ordinary.  This property offered my family the chance to stay in a clean and decently maintained room that was very close to food, shopping and attractions.  If you're a budget traveler, don't be afraid to stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>My family and I stayed at the Rodeway Inn in Buena Park for 2 nights at the end of June.  I booked the room directly through the property on their website and with a discount, paid $65.00 per night not including taxes or fees.
+When booking, I had asked to have a non-smoking room on the top floor away from noise.  The manager took this into consideration and gave us such a room.  He was pleasant and the only person in the motel that I talked to while we were there.
+It had 2 queen sized beds, a full sized closet, an armoire with 3 drawers and a good size TV.  There was a desk in the room, a desk chair, another chair that reminded me of something that would go with a kitchenette set, a heating/cooling window unit, lamps, a small refrigerator, a small microwave, luggage rack, and coffee maker.
+The bathroom was nice sized with a long countertop, a hair dryer, towels and travel-sized toiletries.  The shower/tub was clean and mildew free and looked on the newer side.
+The carpet was dark green and looked fairly new.  However, as with all hotels and motels, it goes without saying that you should be prepared to wind up with dirty feet or dirty socks from all of the other people who have walked on the carpet with their dirty shoes.  The decor was pleasant, nothing special, but everything was clean...My family and I stayed at the Rodeway Inn in Buena Park for 2 nights at the end of June.  I booked the room directly through the property on their website and with a discount, paid $65.00 per night not including taxes or fees.When booking, I had asked to have a non-smoking room on the top floor away from noise.  The manager took this into consideration and gave us such a room.  He was pleasant and the only person in the motel that I talked to while we were there.It had 2 queen sized beds, a full sized closet, an armoire with 3 drawers and a good size TV.  There was a desk in the room, a desk chair, another chair that reminded me of something that would go with a kitchenette set, a heating/cooling window unit, lamps, a small refrigerator, a small microwave, luggage rack, and coffee maker.The bathroom was nice sized with a long countertop, a hair dryer, towels and travel-sized toiletries.  The shower/tub was clean and mildew free and looked on the newer side.The carpet was dark green and looked fairly new.  However, as with all hotels and motels, it goes without saying that you should be prepared to wind up with dirty feet or dirty socks from all of the other people who have walked on the carpet with their dirty shoes.  The decor was pleasant, nothing special, but everything was clean which is more important to me.The bed mattresses were new looking too.  And there were NO bed bugs in our room.  The linens were fresh and untorn, except for the fuzzy blankets that seem to be a staple in this caliber of hotel.  It looked like the washing machine or dryer had taken some of the fuzz in chunks out of the blanket.  Other than that, we had no complaints about the beds.The hotel itself sits in a parking lot on Beach Blvd and faces west.  La Palma Avenue is on the north side and the Buena Park Mall is less than a half mile to the east away also on La Palma Ave.  Knott's Berry Farm is on the opposite corner from the Rodeway Inn, a nice Claim Jumper is directly across the street, IHOP, Subway and Washington Mutual Bank are less than a minute away by foot.  Also, there is McDonald's, Starbuck's, Medieval Times, Pirate Adventure, PoFolk's, Ripley's Believe It Or Not Museum also on Beach Blvd, just north of the motel.  We walked to and from Knott's on a busy Saturday without any problems.The motel offered a complimentary breakfast with the typical cereal and juice set up, served in their eating area next to the lobby.  Signs asked that the food not be taken up to the rooms, which is odd considering that the motel allows food to be stored and cooked in the rooms.  There was a courtyard with a pool and jacuzzi which were being used by other guests and they looked clean but we did not use them ourselves.All in all, we were not disappointed.  We heard no loud noises and didn't smell any strange smells or experience anything out of the ordinary.  This property offered my family the chance to stay in a clean and decently maintained room that was very close to food, shopping and attractions.  If you're a budget traveler, don't be afraid to stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r6183361-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>6183361</t>
+  </si>
+  <si>
+    <t>11/26/2006</t>
+  </si>
+  <si>
+    <t>Best Location for Knotts</t>
+  </si>
+  <si>
+    <t>We decided to go to Knotts Berry Farm at the last minute, on Thanksgiving weekend. We wanted to book 3 rooms together for our extended family so I called the hotel directly. Because I called just 1  day before our stay, I expected to pay more for our rooms. Our rooms consisted of 2 Queen beds per room at $63 each, and the hotel clerk was able to place us with rooms side by side. We were very pleased with the accommodations  The rooms were a decent size for 2 people, however I think they would be a bit cramped for 4. The rooms were passable on cleanliness. There were a few scuff marks and cracks on the walls and a few stains in the rugs, but overall they were clean with no mold in the bathrooms. (mold is a big peeve for me). The rooms each had a mini refrigerator and microwave. If you plan on packing in your meals and eating in the room,  the microwave and frig are a great convenience, however the rooms did not have tables. (They had work desks instead. Kind of an inconsistent theme to me). Oh - and they did not have alarm clocks or clocks of any kind so bring your own.
+The location of the Roadway Inn is EXCELLENT! It is the closest hotel to Knotts with the exception of Knotts Resort Hotel on the opposite end of the park....We decided to go to Knotts Berry Farm at the last minute, on Thanksgiving weekend. We wanted to book 3 rooms together for our extended family so I called the hotel directly. Because I called just 1  day before our stay, I expected to pay more for our rooms. Our rooms consisted of 2 Queen beds per room at $63 each, and the hotel clerk was able to place us with rooms side by side. We were very pleased with the accommodations  The rooms were a decent size for 2 people, however I think they would be a bit cramped for 4. The rooms were passable on cleanliness. There were a few scuff marks and cracks on the walls and a few stains in the rugs, but overall they were clean with no mold in the bathrooms. (mold is a big peeve for me). The rooms each had a mini refrigerator and microwave. If you plan on packing in your meals and eating in the room,  the microwave and frig are a great convenience, however the rooms did not have tables. (They had work desks instead. Kind of an inconsistent theme to me). Oh - and they did not have alarm clocks or clocks of any kind so bring your own.The location of the Roadway Inn is EXCELLENT! It is the closest hotel to Knotts with the exception of Knotts Resort Hotel on the opposite end of the park. Being able to walk to Knotts saved us a $12 parking fee. The Roadway Inn also has several restaurants nearby. A IHOP is located on the same lot and so is a Subway. McDonalds and a Cask and Clever restaurant are across the street and several other fast food places are very close. A bank with an ATM is next door. The location and variety of restaurants make this an ideal place to stay. The grounds were clean and nicely landscaped. The swimming pool and pool area was clean. The pool was a good size, however the Jacuzzi was a bit small. The Jacuzzi was a welcome treat for my tired feet after a day of walking at Knotts!The best asset of this hotel is it's location. There are an abundance of restaurants within walking distance and other attractions nearby. The  Knotts Resort is the next closest hotel, however it is located on the opposite side of the park and does not have as many choices in restaurants - Something you may want to consider. I liked the Roadway Inn because once we parked our gas guzzling SUV, we didn't need it again until we left.Overall, we were very happy with the location and accommodations.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2006</t>
+  </si>
+  <si>
+    <t>We decided to go to Knotts Berry Farm at the last minute, on Thanksgiving weekend. We wanted to book 3 rooms together for our extended family so I called the hotel directly. Because I called just 1  day before our stay, I expected to pay more for our rooms. Our rooms consisted of 2 Queen beds per room at $63 each, and the hotel clerk was able to place us with rooms side by side. We were very pleased with the accommodations  The rooms were a decent size for 2 people, however I think they would be a bit cramped for 4. The rooms were passable on cleanliness. There were a few scuff marks and cracks on the walls and a few stains in the rugs, but overall they were clean with no mold in the bathrooms. (mold is a big peeve for me). The rooms each had a mini refrigerator and microwave. If you plan on packing in your meals and eating in the room,  the microwave and frig are a great convenience, however the rooms did not have tables. (They had work desks instead. Kind of an inconsistent theme to me). Oh - and they did not have alarm clocks or clocks of any kind so bring your own.
+The location of the Roadway Inn is EXCELLENT! It is the closest hotel to Knotts with the exception of Knotts Resort Hotel on the opposite end of the park....We decided to go to Knotts Berry Farm at the last minute, on Thanksgiving weekend. We wanted to book 3 rooms together for our extended family so I called the hotel directly. Because I called just 1  day before our stay, I expected to pay more for our rooms. Our rooms consisted of 2 Queen beds per room at $63 each, and the hotel clerk was able to place us with rooms side by side. We were very pleased with the accommodations  The rooms were a decent size for 2 people, however I think they would be a bit cramped for 4. The rooms were passable on cleanliness. There were a few scuff marks and cracks on the walls and a few stains in the rugs, but overall they were clean with no mold in the bathrooms. (mold is a big peeve for me). The rooms each had a mini refrigerator and microwave. If you plan on packing in your meals and eating in the room,  the microwave and frig are a great convenience, however the rooms did not have tables. (They had work desks instead. Kind of an inconsistent theme to me). Oh - and they did not have alarm clocks or clocks of any kind so bring your own.The location of the Roadway Inn is EXCELLENT! It is the closest hotel to Knotts with the exception of Knotts Resort Hotel on the opposite end of the park. Being able to walk to Knotts saved us a $12 parking fee. The Roadway Inn also has several restaurants nearby. A IHOP is located on the same lot and so is a Subway. McDonalds and a Cask and Clever restaurant are across the street and several other fast food places are very close. A bank with an ATM is next door. The location and variety of restaurants make this an ideal place to stay. The grounds were clean and nicely landscaped. The swimming pool and pool area was clean. The pool was a good size, however the Jacuzzi was a bit small. The Jacuzzi was a welcome treat for my tired feet after a day of walking at Knotts!The best asset of this hotel is it's location. There are an abundance of restaurants within walking distance and other attractions nearby. The  Knotts Resort is the next closest hotel, however it is located on the opposite side of the park and does not have as many choices in restaurants - Something you may want to consider. I liked the Roadway Inn because once we parked our gas guzzling SUV, we didn't need it again until we left.Overall, we were very happy with the location and accommodations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r3695003-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>3695003</t>
+  </si>
+  <si>
+    <t>07/22/2005</t>
+  </si>
+  <si>
+    <t>Never again!</t>
+  </si>
+  <si>
+    <t>When we checked in the office staff was unable to retrieve our reservations that we had had for several weeks.  When I gave them our confirmation number they told us that their system wouldn't recognize that number because it had too many numbers in it.  Therefore, we had no room, but they found us one for the night until they could straighten everything out.  The next day, the manager was rude to me when I asked whether they had found us a room to move into.  He was clearly unhappy about the low price we had gotten the room for since I had booked it so early through a loyalty program.  When I called the customer service number for our loyalty program and told them about the mix-up, they said they use the same reservation system that the hotel itself uses, so if there was system incompatibility it would have to be between the local hotel and the national reservation number for Super 8.  As I was speaking to customer service, the manager rudely asked me to move away from the desk because he was trying to take a call.  For the condition of the rooms and the property, the hassle wasn't worth it.  Just remember, you get what you pay for.  I think some of this difficulty was due to the fact that NOBODY at the hotel was an English-speaking American.MoreShow less</t>
+  </si>
+  <si>
+    <t>When we checked in the office staff was unable to retrieve our reservations that we had had for several weeks.  When I gave them our confirmation number they told us that their system wouldn't recognize that number because it had too many numbers in it.  Therefore, we had no room, but they found us one for the night until they could straighten everything out.  The next day, the manager was rude to me when I asked whether they had found us a room to move into.  He was clearly unhappy about the low price we had gotten the room for since I had booked it so early through a loyalty program.  When I called the customer service number for our loyalty program and told them about the mix-up, they said they use the same reservation system that the hotel itself uses, so if there was system incompatibility it would have to be between the local hotel and the national reservation number for Super 8.  As I was speaking to customer service, the manager rudely asked me to move away from the desk because he was trying to take a call.  For the condition of the rooms and the property, the hassle wasn't worth it.  Just remember, you get what you pay for.  I think some of this difficulty was due to the fact that NOBODY at the hotel was an English-speaking American.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r2699403-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>2699403</t>
+  </si>
+  <si>
+    <t>10/11/2004</t>
+  </si>
+  <si>
+    <t>A Good Value</t>
+  </si>
+  <si>
+    <t>This motel is located catty-corner across the street from Knott's Berry Farm. It was a less than 5 minute walk to the main gate.We received a rate of $48 from the Super 8 website and found the room to be a good value for the price. As requested, we received a king bed, smoking, efficiency room. The room was fairly large with a full size refrigerator, oven, stovetop, and sink. There was also a 4-cup coffeemaker in the kitchen area. The bathroom came equipped with a hairdryer. The mattress was firm and comfortable.The motel also has a pool and continental breakfast consisting of muffins and toast. Coffee and tea were available, but no juice. My only complaint is that the room we had needed a little extra attention to the cleaning. The carpets were stained and the kitchen cabinets needed a better wiping down. The room also had a "baby smell" when we first checked in, but we were able to open the windows and give the room a good airing out. I have occasionally found that "smoking" rooms seem to receive less attention than non-smoking rooms, so others may not experience this problem. The rest of the room, including the bathroom was very clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>This motel is located catty-corner across the street from Knott's Berry Farm. It was a less than 5 minute walk to the main gate.We received a rate of $48 from the Super 8 website and found the room to be a good value for the price. As requested, we received a king bed, smoking, efficiency room. The room was fairly large with a full size refrigerator, oven, stovetop, and sink. There was also a 4-cup coffeemaker in the kitchen area. The bathroom came equipped with a hairdryer. The mattress was firm and comfortable.The motel also has a pool and continental breakfast consisting of muffins and toast. Coffee and tea were available, but no juice. My only complaint is that the room we had needed a little extra attention to the cleaning. The carpets were stained and the kitchen cabinets needed a better wiping down. The room also had a "baby smell" when we first checked in, but we were able to open the windows and give the room a good airing out. I have occasionally found that "smoking" rooms seem to receive less attention than non-smoking rooms, so others may not experience this problem. The rest of the room, including the bathroom was very clean.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1881,4021 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" t="s">
+        <v>124</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" t="s">
+        <v>144</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>145</v>
+      </c>
+      <c r="X16" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>153</v>
+      </c>
+      <c r="O17" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>156</v>
+      </c>
+      <c r="J18" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" t="s">
+        <v>159</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>160</v>
+      </c>
+      <c r="O18" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>167</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" t="s">
+        <v>173</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>174</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>181</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>181</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" t="s">
+        <v>190</v>
+      </c>
+      <c r="L23" t="s">
+        <v>191</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>192</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>195</v>
+      </c>
+      <c r="J24" t="s">
+        <v>196</v>
+      </c>
+      <c r="K24" t="s">
+        <v>197</v>
+      </c>
+      <c r="L24" t="s">
+        <v>198</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>199</v>
+      </c>
+      <c r="O24" t="s">
+        <v>124</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" t="s">
+        <v>202</v>
+      </c>
+      <c r="K25" t="s">
+        <v>203</v>
+      </c>
+      <c r="L25" t="s">
+        <v>204</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>199</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>206</v>
+      </c>
+      <c r="J26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K26" t="s">
+        <v>208</v>
+      </c>
+      <c r="L26" t="s">
+        <v>209</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>210</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" t="s">
+        <v>214</v>
+      </c>
+      <c r="K27" t="s">
+        <v>215</v>
+      </c>
+      <c r="L27" t="s">
+        <v>216</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>210</v>
+      </c>
+      <c r="O27" t="s">
+        <v>144</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>219</v>
+      </c>
+      <c r="J28" t="s">
+        <v>220</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s">
+        <v>221</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>210</v>
+      </c>
+      <c r="O28" t="s">
+        <v>87</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>224</v>
+      </c>
+      <c r="J29" t="s">
+        <v>225</v>
+      </c>
+      <c r="K29" t="s">
+        <v>226</v>
+      </c>
+      <c r="L29" t="s">
+        <v>227</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>228</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>230</v>
+      </c>
+      <c r="J30" t="s">
+        <v>231</v>
+      </c>
+      <c r="K30" t="s">
+        <v>232</v>
+      </c>
+      <c r="L30" t="s">
+        <v>233</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>228</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>234</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>235</v>
+      </c>
+      <c r="J31" t="s">
+        <v>236</v>
+      </c>
+      <c r="K31" t="s">
+        <v>237</v>
+      </c>
+      <c r="L31" t="s">
+        <v>238</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>228</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>240</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>241</v>
+      </c>
+      <c r="J32" t="s">
+        <v>242</v>
+      </c>
+      <c r="K32" t="s">
+        <v>243</v>
+      </c>
+      <c r="L32" t="s">
+        <v>244</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>247</v>
+      </c>
+      <c r="J33" t="s">
+        <v>248</v>
+      </c>
+      <c r="K33" t="s">
+        <v>249</v>
+      </c>
+      <c r="L33" t="s">
+        <v>250</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>252</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>253</v>
+      </c>
+      <c r="J34" t="s">
+        <v>254</v>
+      </c>
+      <c r="K34" t="s">
+        <v>255</v>
+      </c>
+      <c r="L34" t="s">
+        <v>256</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>257</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>259</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>260</v>
+      </c>
+      <c r="J35" t="s">
+        <v>261</v>
+      </c>
+      <c r="K35" t="s">
+        <v>262</v>
+      </c>
+      <c r="L35" t="s">
+        <v>263</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>257</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>265</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>266</v>
+      </c>
+      <c r="J36" t="s">
+        <v>267</v>
+      </c>
+      <c r="K36" t="s">
+        <v>268</v>
+      </c>
+      <c r="L36" t="s">
+        <v>269</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>270</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>271</v>
+      </c>
+      <c r="J37" t="s">
+        <v>272</v>
+      </c>
+      <c r="K37" t="s">
+        <v>273</v>
+      </c>
+      <c r="L37" t="s">
+        <v>274</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>275</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>276</v>
+      </c>
+      <c r="J38" t="s">
+        <v>277</v>
+      </c>
+      <c r="K38" t="s">
+        <v>278</v>
+      </c>
+      <c r="L38" t="s">
+        <v>279</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>280</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>281</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>282</v>
+      </c>
+      <c r="J39" t="s">
+        <v>283</v>
+      </c>
+      <c r="K39" t="s">
+        <v>284</v>
+      </c>
+      <c r="L39" t="s">
+        <v>285</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>286</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>288</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>289</v>
+      </c>
+      <c r="J40" t="s">
+        <v>290</v>
+      </c>
+      <c r="K40" t="s">
+        <v>291</v>
+      </c>
+      <c r="L40" t="s">
+        <v>292</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>293</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>295</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>296</v>
+      </c>
+      <c r="J41" t="s">
+        <v>297</v>
+      </c>
+      <c r="K41" t="s">
+        <v>298</v>
+      </c>
+      <c r="L41" t="s">
+        <v>299</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>300</v>
+      </c>
+      <c r="O41" t="s">
+        <v>67</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>301</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>302</v>
+      </c>
+      <c r="J42" t="s">
+        <v>303</v>
+      </c>
+      <c r="K42" t="s">
+        <v>304</v>
+      </c>
+      <c r="L42" t="s">
+        <v>305</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>300</v>
+      </c>
+      <c r="O42" t="s">
+        <v>67</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>306</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>307</v>
+      </c>
+      <c r="J43" t="s">
+        <v>308</v>
+      </c>
+      <c r="K43" t="s">
+        <v>309</v>
+      </c>
+      <c r="L43" t="s">
+        <v>310</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>312</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>313</v>
+      </c>
+      <c r="J44" t="s">
+        <v>314</v>
+      </c>
+      <c r="K44" t="s">
+        <v>315</v>
+      </c>
+      <c r="L44" t="s">
+        <v>316</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>318</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>319</v>
+      </c>
+      <c r="J45" t="s">
+        <v>320</v>
+      </c>
+      <c r="K45" t="s">
+        <v>321</v>
+      </c>
+      <c r="L45" t="s">
+        <v>322</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>323</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>325</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>326</v>
+      </c>
+      <c r="J46" t="s">
+        <v>327</v>
+      </c>
+      <c r="K46" t="s">
+        <v>328</v>
+      </c>
+      <c r="L46" t="s">
+        <v>329</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>323</v>
+      </c>
+      <c r="O46" t="s">
+        <v>87</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>330</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>331</v>
+      </c>
+      <c r="J47" t="s">
+        <v>332</v>
+      </c>
+      <c r="K47" t="s">
+        <v>333</v>
+      </c>
+      <c r="L47" t="s">
+        <v>334</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>335</v>
+      </c>
+      <c r="O47" t="s">
+        <v>67</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>336</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>337</v>
+      </c>
+      <c r="J48" t="s">
+        <v>338</v>
+      </c>
+      <c r="K48" t="s">
+        <v>339</v>
+      </c>
+      <c r="L48" t="s">
+        <v>340</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>341</v>
+      </c>
+      <c r="O48" t="s">
+        <v>87</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>343</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>344</v>
+      </c>
+      <c r="J49" t="s">
+        <v>345</v>
+      </c>
+      <c r="K49" t="s">
+        <v>346</v>
+      </c>
+      <c r="L49" t="s">
+        <v>347</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>348</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>349</v>
+      </c>
+      <c r="J50" t="s">
+        <v>350</v>
+      </c>
+      <c r="K50" t="s">
+        <v>351</v>
+      </c>
+      <c r="L50" t="s">
+        <v>352</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>353</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>354</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>355</v>
+      </c>
+      <c r="J51" t="s">
+        <v>356</v>
+      </c>
+      <c r="K51" t="s">
+        <v>357</v>
+      </c>
+      <c r="L51" t="s">
+        <v>358</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>360</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>361</v>
+      </c>
+      <c r="J52" t="s">
+        <v>362</v>
+      </c>
+      <c r="K52" t="s">
+        <v>363</v>
+      </c>
+      <c r="L52" t="s">
+        <v>364</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>353</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>365</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>366</v>
+      </c>
+      <c r="J53" t="s">
+        <v>367</v>
+      </c>
+      <c r="K53" t="s">
+        <v>368</v>
+      </c>
+      <c r="L53" t="s">
+        <v>369</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>370</v>
+      </c>
+      <c r="O53" t="s">
+        <v>67</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>372</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>373</v>
+      </c>
+      <c r="J54" t="s">
+        <v>374</v>
+      </c>
+      <c r="K54" t="s">
+        <v>375</v>
+      </c>
+      <c r="L54" t="s">
+        <v>376</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>377</v>
+      </c>
+      <c r="O54" t="s">
+        <v>67</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>379</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>380</v>
+      </c>
+      <c r="J55" t="s">
+        <v>381</v>
+      </c>
+      <c r="K55" t="s">
+        <v>382</v>
+      </c>
+      <c r="L55" t="s">
+        <v>383</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>384</v>
+      </c>
+      <c r="O55" t="s">
+        <v>67</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>385</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>386</v>
+      </c>
+      <c r="J56" t="s">
+        <v>387</v>
+      </c>
+      <c r="K56" t="s">
+        <v>388</v>
+      </c>
+      <c r="L56" t="s">
+        <v>389</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>390</v>
+      </c>
+      <c r="O56" t="s">
+        <v>124</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>392</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>393</v>
+      </c>
+      <c r="J57" t="s">
+        <v>387</v>
+      </c>
+      <c r="K57" t="s">
+        <v>394</v>
+      </c>
+      <c r="L57" t="s">
+        <v>395</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>390</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>397</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>398</v>
+      </c>
+      <c r="J58" t="s">
+        <v>399</v>
+      </c>
+      <c r="K58" t="s">
+        <v>400</v>
+      </c>
+      <c r="L58" t="s">
+        <v>401</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>402</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>404</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>405</v>
+      </c>
+      <c r="J59" t="s">
+        <v>406</v>
+      </c>
+      <c r="K59" t="s">
+        <v>407</v>
+      </c>
+      <c r="L59" t="s">
+        <v>408</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>409</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>410</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>411</v>
+      </c>
+      <c r="J60" t="s">
+        <v>412</v>
+      </c>
+      <c r="K60" t="s">
+        <v>413</v>
+      </c>
+      <c r="L60" t="s">
+        <v>414</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>415</v>
+      </c>
+      <c r="O60" t="s">
+        <v>67</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>417</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>418</v>
+      </c>
+      <c r="J61" t="s">
+        <v>419</v>
+      </c>
+      <c r="K61" t="s">
+        <v>420</v>
+      </c>
+      <c r="L61" t="s">
+        <v>421</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>422</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>424</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>425</v>
+      </c>
+      <c r="J62" t="s">
+        <v>426</v>
+      </c>
+      <c r="K62" t="s">
+        <v>427</v>
+      </c>
+      <c r="L62" t="s">
+        <v>428</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>429</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>431</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>432</v>
+      </c>
+      <c r="J63" t="s">
+        <v>433</v>
+      </c>
+      <c r="K63" t="s">
+        <v>434</v>
+      </c>
+      <c r="L63" t="s">
+        <v>435</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>24338</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>437</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>438</v>
+      </c>
+      <c r="J64" t="s">
+        <v>439</v>
+      </c>
+      <c r="K64" t="s">
+        <v>440</v>
+      </c>
+      <c r="L64" t="s">
+        <v>441</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>2</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>442</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_678.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_678.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="505">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>T-2SanDiego</t>
+  </si>
+  <si>
     <t>07/10/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>melchorm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r570007342-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>We rented two rooms and both were disgusting!! We found drug paraphernalia in both rooms. Not exactly what we wanted to find especially since we had kids. The bed sheets were gross and there was hair everywhere!!! We found hair on the bed, on the pillows, on the sheets and on the towels. We talked to the person in the front office but all we got was a "I'm sorry there are no other rooms" and "the rooms were previously cleaned" Didn't feel like arguing much since the price we paid was low. We took a trip to Target where we purchased bed sheets, pillows, blankets and towels for our three day stay.The only reason this review gets an additional star is because it is in great location.More</t>
   </si>
   <si>
+    <t>seahunters2000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r523809901-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>We stayed here over night on our recent trip to Knotts Berry Farm. Pros: Great location, walking distance to Knotts Berry Farm and many restaurants and fast food.Cheap priceMini fridge and microwave in room. Cons:Our room had beat up walls in the bedroom and bathroom. It looked like they were patched many times over by an amateur.The bedroom widow looked right into a hallway window so we had to keep the curtains shut the whole time. The shower head was the size of a quarter! The bottom of the pool was covered with algae. The jacuzzi was tiny 2 people was fine 3 would be a crowd. This motel did fine for sleeping on an overnight stay but definitely would not make this a home base motel for a family vacation for a week. More</t>
   </si>
   <si>
+    <t>Robert V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r491643926-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>gaby m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r479148407-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>nmck33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r470990766-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Melrose D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r424706211-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -297,6 +318,9 @@
     <t xml:space="preserve">We stayed there recently and were very impressed with the hotels staff and beautiful pool and jacuzzi ! I would definitely recommend this hotel for my family and friends . They were also really nice to my service animal and had amazing recommendations for dinner and lunch. All in all great place </t>
   </si>
   <si>
+    <t>Reg A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r412519898-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -315,6 +339,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>lilkk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r403411434-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -333,6 +360,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>BalwynCalling</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r361368855-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -354,6 +384,9 @@
     <t>If you wish to stay near Knott's Berry Farm, Rodeway Inn is the closest motel to the front gates, where you can park for free, and there is plenty of eating options next to the motel car park including Subway and IHOP, while McDonalds is directly across the road.  The free breakfast is also appreciated, although it is pretty basic, with service starting at 7am.We were actually considering going to Sea World San Diego on our recent holiday, however, it ended up being substantially cheaper for a family of 4 to go to Knott's Berry Farm with it offering US$40 online tickets versus US$69 tickets at Sea World.  My kids loved Knott's Berry Farm, and visiting in January, there was virtually no wait to get on rides, so we made the right choice.Overall the rooms were what I expected for the price, providing the basics if you are out at Knott's Berry Farm all day.  The only aspect which would have been appreciated was having earlier access to our room.  My experience at reception gave me the impression that Rodeway Inn adhered strictly to check in times, even if you room was available.More</t>
   </si>
   <si>
+    <t>Mariah M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r337069996-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -372,6 +405,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>Rebecca P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r299674844-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -393,6 +429,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>angiemejia80</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r282121048-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -414,6 +453,9 @@
     <t>Ok we have stayed here before nothing fancy ,but close to Knotts which is why we choose this hotel and its very affordable. But you should know it is old and linens and towels shouls be replaced but we learned and take our own towels and extra blankets not a big deal for us. Also since we do save some money and we dont pay parking at Knotts we eat at Mcdonalds right across the street, so breakfast is not an issue, I get coffee only but they do need to improve on their breakfast better pastries and cereal for kids. Housekeeping staff is not that cool but Ms Karen in front is awesomeeee! Overall good place to stay and we will stay here again.More</t>
   </si>
   <si>
+    <t>Jim K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r279533393-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -432,6 +474,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>hya e</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r262575069-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -462,6 +507,9 @@
     <t>It's really nice hotel but the wifi doesn't work at all.i have read about this problem through out the reviews but still doesn't work.if they fix it I think it will be perfect stay.for a business trip I don't think I will stay there again due to the fact I can't access the Internet .More</t>
   </si>
   <si>
+    <t>Robert M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r245685412-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -483,6 +531,9 @@
     <t>I think this is a great location. Good to everything entertainment. Mr. Patel is an outstanding owner and is very kind and takes a legitimate concern with every customer. I feel that the amenities are fantastic. Free wireless internet, coffee in every room (you can always ask the maid for more), big screen cable T.V. screens in the rooms with remote. Small but convenient kitchenette including a microwave, stove, full size refrigerator, nice office desk with a lamp. enough space to hang your clothes and enough space to comfortably put your clothes in the marble top dresser (huge). King size bed. Now for the critique. Outdated furniture, old carpet, wallpaper that needs to be removed, old beds (but comfortable), great clean swimming pool, I personally like the furniture in my room; other than the chipped table in my room. The only real problem that I see is the rif-raf that comes in the parking lot at times, and the noise from the bar two doors down out their back door. I realize there is nothing to do about that it is what it is. With new carpets which they are getting, new furniture, new paint jobs in the room (no wallpaper) and the hallways. Something that I really liked was the free cereal, toast, coffee and milk and orange juice in the T.V. room downstairs across from the front office. I think this is a fantastic motel that just needs...I think this is a great location. Good to everything entertainment. Mr. Patel is an outstanding owner and is very kind and takes a legitimate concern with every customer. I feel that the amenities are fantastic. Free wireless internet, coffee in every room (you can always ask the maid for more), big screen cable T.V. screens in the rooms with remote. Small but convenient kitchenette including a microwave, stove, full size refrigerator, nice office desk with a lamp. enough space to hang your clothes and enough space to comfortably put your clothes in the marble top dresser (huge). King size bed. Now for the critique. Outdated furniture, old carpet, wallpaper that needs to be removed, old beds (but comfortable), great clean swimming pool, I personally like the furniture in my room; other than the chipped table in my room. The only real problem that I see is the rif-raf that comes in the parking lot at times, and the noise from the bar two doors down out their back door. I realize there is nothing to do about that it is what it is. With new carpets which they are getting, new furniture, new paint jobs in the room (no wallpaper) and the hallways. Something that I really liked was the free cereal, toast, coffee and milk and orange juice in the T.V. room downstairs across from the front office. I think this is a fantastic motel that just needs a little TLC. Mr. Patel thank you for a wonderful experience.More</t>
   </si>
   <si>
+    <t>Beachkidboy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r232941464-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -502,6 +553,9 @@
   </si>
   <si>
     <t>I have stayed here twice before and had much more pleasant experiences. It is about the most convenient Inn when going to Knott's Berry Farm. It is the same walking distance as Knott's on-property hotel but at half the price. Don't get me wrong, I don't expect it to be as nice. While Knott's Hotel is a full-service property, the Rodeway is a cross between a Hotel and a Motel, hence an Inn. On my two previous visits I had nothing noteworthy to complain about, but this time was different. I stayed for two nights, a Saturday and a Sunday while attending Knott's Scary Farms Halloween Haunt. I had originally booked it, as a Choice Privileges member for $161.26 for two nights. Later I found it cheaper, $131.02, and took them-up on their price matching promise. They did that and confirmed the lower rate to me. Upon check-in I was still charged the higher rate, but did get it refunded without a problem after bringing it to their attention. Have to wait for my credit card bill to be sure it went through. For the room itself, the phone had absolutely no markings for how to dial-out, front desk, etc... I had to go to the front desk to find out how to make a call. There was absolutely no pen or paper to write anything down. Another trip to the front desk, which resulted in a couple sheets of...I have stayed here twice before and had much more pleasant experiences. It is about the most convenient Inn when going to Knott's Berry Farm. It is the same walking distance as Knott's on-property hotel but at half the price. Don't get me wrong, I don't expect it to be as nice. While Knott's Hotel is a full-service property, the Rodeway is a cross between a Hotel and a Motel, hence an Inn. On my two previous visits I had nothing noteworthy to complain about, but this time was different. I stayed for two nights, a Saturday and a Sunday while attending Knott's Scary Farms Halloween Haunt. I had originally booked it, as a Choice Privileges member for $161.26 for two nights. Later I found it cheaper, $131.02, and took them-up on their price matching promise. They did that and confirmed the lower rate to me. Upon check-in I was still charged the higher rate, but did get it refunded without a problem after bringing it to their attention. Have to wait for my credit card bill to be sure it went through. For the room itself, the phone had absolutely no markings for how to dial-out, front desk, etc... I had to go to the front desk to find out how to make a call. There was absolutely no pen or paper to write anything down. Another trip to the front desk, which resulted in a couple sheets of note paper, and a used Radisson Hotel pen. Although I never used it, the room had an ironing board in the closet, but no iron. WHile the desk area had a current of a 'goings on in Orange County' magazine, under my bed I found a dated issue on the floor, indicating they do not clean very well, at least under the bed. For the microwave and coffee maker, the coffee maker along with a tray for cups and the ice bucket rested on top of the ventilation grills for the microwave. If you kept the coffee maker where it was to make coffee, you had to unplug either the microwave or the refrigerator. And even then the cord is so short you have to slide it to the edge, I dumped it once and later had to just leave it on the floor. When I came back to my room about 1:00am after a full night at Knott's I found my alarm clock going off, who knows how long, housekeeping must have flipped it on. I had never had these problems in the past. That being said, my biggest grievance was the hotel seemed to be booked by an entire tour group from Bora Bora, guessing from the clothing and t-shirts they were wearing, who seemed to have no problem with making the hotel their own, loud music with their doors open, shouting down the length of the halls, little kids racing up and down the halls and screaming and yelling. And doors being slammed constantly. Obviously no parental supervision out of respect to other guests since the adults were doing it too. I don't think I will stay here again.More</t>
+  </si>
+  <si>
+    <t>Luv2Travel216</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r224454581-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
@@ -529,6 +583,9 @@
 Not so good:  There were a lot of old TVs and mattresses near the entrance waiting for disposal.  A lot of people seemed to live in the hotel.  Cars outside were even packed with items as though people were living out of them. The hotel seemed to be located in a little bit of a shady area.  We really didn't feel too comfortable walking around at night.  This is not a hotel flaw, just an observation of the area.  The general area has a...There are many wonderful aspects to this hotel, but I wouldn't do travelers justice if I left out my concerns.  Some of my concerns don't have to do with the hotel itself, just their location.Good:  Outstanding location to Knotts at an unbeatable price.  The hotel is right next to IHOP and across the street from Claim Jumper Restaurant. You can easily walk to Knotts Berry Farm (1 block) from the hotel and save on parking fees.  When visiting California, we always stay in this area because of Knotts.  We love the park and Chicken Dinner Restaurant.  This was our first time staying at the Rodeway.  The hotel had clean rooms, outdoor pool, and simple breakfast (bread, coffee, cereal).  I'm not going to criticize the breakfast because I think it's nice that they give any sort of breakfast to their guests.  At the low price they charge for their rooms, you can't expect a hot buffet.Not so good:  There were a lot of old TVs and mattresses near the entrance waiting for disposal.  A lot of people seemed to live in the hotel.  Cars outside were even packed with items as though people were living out of them. The hotel seemed to be located in a little bit of a shady area.  We really didn't feel too comfortable walking around at night.  This is not a hotel flaw, just an observation of the area.  The general area has a few shady people walking around. The hotel did do a great job locking their office up at night and keeping iron bars all around the first floor area and pool area.  Although it doesn't help improve the ambiance, it does give you a safer feeling.  Overall:  Great price for a nice room!  Our room had a kitchenette!  Very nice touch!  We would stay here again.Suggestions:  Towel upgrade needed!  Decorate entrance area with flowers or plants.  This will help make guests feel like they are on vacation.More</t>
   </si>
   <si>
+    <t>thetravelingsquid</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r213834953-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -550,6 +607,9 @@
     <t>I needed a place to stay on short notice for the night of July 4th &amp; this is what I found; for the price I paid (around $70 tax included) it was about what I expected. Pros: free parking, about a 5 minute walk from the hotel to Knott's ticket booths, clean pool with many lounge chairs, interior corridors, new carpet and granite bathroom fixtures in the room I had, bed was decent...not brand new, but not terrible and lumpy or anything, full-sized refrigerator in the room. Cons: towels were old and stained (I used the beach towel I brought for showering also), shady characters hanging around the parking lot at night, toilet had to be flushed twice for liquids and 3-4 times for solids (yuck!), bad smells in the lobby (food being cooked?) and in the halls (urine?). The hotel served its purpose (a place to sleep and shower for an overnight stay), but I would not stay there again.More</t>
   </si>
   <si>
+    <t>MrRS-lv-sm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r212946361-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -568,6 +628,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>vacationsalot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r210926619-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -583,6 +646,9 @@
     <t xml:space="preserve">We stayed for 4 nights over Father's Day weekend. The place wasn't packed and there was plenty of parking. I felt safe. There are a lot of dining options around. The motel it self is older but they are remodeling. It was quiet even with the pool being used all day right outside of our window. The staff I dealt with were friendly. The beds could have been softer. The TV remote didn't work but not  a big deal. The breakfast is the only disappointment I had. It was sad but for $262 for 4 nights we could afford breakfast elsewhere. </t>
   </si>
   <si>
+    <t>Melissa C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r197233114-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -604,6 +670,9 @@
     <t>Let me start with the only good things I have to say about this place and that is that it was pretty clean, the mattresses were pretty comfy, and from the looks of it they are in the process of updating so maybe in a year or two it will be better? Let me also state that I am not used to staying in fancy hotels but I still expected a little more from this place. The rooms smelled horribly musty. My kids could hardly stand it. The hot tub was cold. I even called before I made my reservation to find out if the pool and hot tub were working and they told me that they were. The staff seemed very inconvenienced and annoyed. The cot I paid $10 for was so thin and worn that my 6 year old preferred to sleep on the floor (on top of our own blankets that we brought of course) The towels barely covered me (average height and weight) and my husband (average height and weight) felt like he was using a hand towel. Not to mention the towels were dingy, thin and even had holes in most of them. There was very limited parking. This hotel is not worth more than $50, and definitely NOT the $80 I paid for it. Next time we will stay elsewhere.More</t>
   </si>
   <si>
+    <t>David S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r193216899-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -622,6 +691,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Eric M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r190845153-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -637,6 +709,9 @@
     <t>I stay the weekend of January the 11th. I saw the reviews and I was concern of making the decision to stay. Finally I did and my family and I had a good time. The personal was really happy and helpful. Breakfast was good and fresh. Location was excellent walking distance from Knott’s, no parking payment yahoo. Restaurants also walking distance. The hotel is been under some construction and that was not a problem. The rooms are normal rooms nothing fancy but for real you there to sleep or use the pool and or Jacuzzi… Did I mention staff was really professional, happy and helpful lol I did…Thanks Rodeway!!!</t>
   </si>
   <si>
+    <t>jhappy73</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r175046545-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -658,6 +733,9 @@
     <t>If you are looking for a short stay, really close to Knotts Berry Farm, with a clean pool/spa, and don't plan on spending much time in the actual room, you'll be fine here. The 2 rooms we stayed in were pretty run down with lots of unfinished wall patching, dirty bathroom counters, broken fridge &amp; oven, no alarm clock, worn-out, stained towels and window screens missing.  The box air conditioning units are so loud, it's hard to sleep  The evening staff can be unpleasant, but the daytime counter person is very friendly &amp; super helpful.On the plus side, the pool was very clean, and they have a nice laundry room, with newer machines.  It was the closest motel to Knotts &amp; Soak Park, and just steps away from great restaurants, Claim Jumper, Medieval Times, Korean BBQ, as well as; Subway, McDonalds, etc.If I could do it over, I would probably spend a few more dollars, and stay somewhere nicer, as my kids are still complaining about how dumpy it was.  1 night is fine, just lower your standards, bring ear plugs, and your own towels.More</t>
   </si>
   <si>
+    <t>Poke598</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r172924519-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -676,6 +754,9 @@
     <t>This place was kind of hit and miss. There were some great things about it, but equally as many bad things about it. When I first came, I had to wait for the man at the window to finish his 5 minute personal phone call in some foreign language. Then I got the keys to my room. Some lights in the room weren't working, and I saw a small cockroach within a couple of minutes. The room smelled like a man's cologne, but not in a good way. There was a lady screaming right outside the window for her life, but I guess that's more of a neighbourhood problem than the hotel's. The bed was quite comfortable. But anyway, I decided to stay another night and they  moved me to a double room, which was very different from the first one. The first one had a full kitchen, while the second one didn't even have a coffee maker. Also, the light switch didn't work, so coming in late was a challenge because I had to open the door, and run to the lights between the beds and turn them on. The second night, my key stopped working and I had to use the other one to get in. The bathroom was very comfortable, however, and lined with marble. The pool looked nice and clean, although I never got the chance to try it. I think this place was quite expensive...This place was kind of hit and miss. There were some great things about it, but equally as many bad things about it. When I first came, I had to wait for the man at the window to finish his 5 minute personal phone call in some foreign language. Then I got the keys to my room. Some lights in the room weren't working, and I saw a small cockroach within a couple of minutes. The room smelled like a man's cologne, but not in a good way. There was a lady screaming right outside the window for her life, but I guess that's more of a neighbourhood problem than the hotel's. The bed was quite comfortable. But anyway, I decided to stay another night and they  moved me to a double room, which was very different from the first one. The first one had a full kitchen, while the second one didn't even have a coffee maker. Also, the light switch didn't work, so coming in late was a challenge because I had to open the door, and run to the lights between the beds and turn them on. The second night, my key stopped working and I had to use the other one to get in. The bathroom was very comfortable, however, and lined with marble. The pool looked nice and clean, although I never got the chance to try it. I think this place was quite expensive for what you actually get. Breakfast was alright. The rates went up the second night I was there.More</t>
   </si>
   <si>
+    <t>Brian M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r172232328-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -691,6 +772,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>MelGeelong</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r164958140-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -709,6 +793,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>fashionqueen24</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r162874160-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -722,6 +809,9 @@
   </si>
   <si>
     <t>I would give this nauseating excuse of a motel no rating if I could.  My husband booked this placed because of the decent rating on tripadvisor and we will never use it again.  Drug dealers, pimps, and prostitutes were seen while we stayed there.  Long black hairs all over our supposedly cleaned bathroom.  My husband refused to sleep under the covers for fear of the diseases he might catch.  We will NEVER stay here again.</t>
+  </si>
+  <si>
+    <t>cwilson77</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r162753268-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
@@ -746,6 +836,9 @@
 The front desk lady was pleasant enough, but the lobby reeked of curry. It was very strong and unpleasant. Fair enough, it's not in my room, so I can overlook the smell in the lobby. After checking in and walking onto the property past the front desk, I was immediately greeted by an alleged prostitute who asked me if I needed any help. I politely declined her help and proceeded back to the...My wife and I were looking for an affordable place to stay while visiting Knott's for a couple days. when we found this place, we thought it was perfect. It is within walking distance to the park and it is one of the lowest priced hotel/motel options in the area. Our experience was anything but perfect. It may seem like a good deal, but spend a few extra dollars and stay somewhere else.First off, let me start by saying that we have stayed in all classes of hotels and motels, from 5 star luxury to the now out of business Glass Pool Inn in Las Vegas (it seemed like a funny idea at the time). One of my favorite low budget places to stay when I go to Vegas to this day is the Motel 6 off of Tropicana, so I am by no means "too good for this place". That being said, I do have minimum standards. This place fell way short of those standards. The front desk lady was pleasant enough, but the lobby reeked of curry. It was very strong and unpleasant. Fair enough, it's not in my room, so I can overlook the smell in the lobby. After checking in and walking onto the property past the front desk, I was immediately greeted by an alleged prostitute who asked me if I needed any help. I politely declined her help and proceeded back to the car to gather up the family. On the way up to our room, we passed by a group of men that were loitering around the property. I can't say for sure that they were pimps or drug dealers, but if they weren't, they were sure wearing the uniforms. Seriously, this place appears to have a problem with pimps, prostitutes, drug dealers, and by the looks of some of the residents (possible long term residents, not sure), drug addicts. There appears to be pimps literally hanging out in the parking lot or around the hotel property. Needless to say, we didn't feel safe at all. when we got to the room, we were met with a dirty bathroom. It was cleaned by the staff, there was even a band over the toilet that said it was 'sanitized for your safety'. However, there were also black hairs all over the bathroom, including on the toilet that was 'sanitized for your safety', in the bathtub, and on the sink and floor. The rest of the room wasn't any better. All of the surfaces weren't dirty, but they also didn't scream clean, if you know what I mean. The beds were the worst thing about the room. We had a 2 queen room. One for the kids and one for the wife and I. My wife described it best when she said that it felt, and sounded, like the beds were wrapped in a trash bag. We had a very uncomfortable night sleep and awoke early to spend the day at Knott's. Our original plan was to leave the car in the hotel parking lot and walk to Knott's, but after realizing that we would have to leave all of our stuff in the car since we were checking out, and considering the clientele that we saw hanging around the property, we decided it was in our best interest to drive across the street and pay $15 to park at Knott's. That was $15 that I had expected to save by staying at a hotel across the street from the park. Oh well, it's a discount for pace of mind.More</t>
   </si>
   <si>
+    <t>2hard2handleali</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r155213004-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -764,6 +857,9 @@
     <t>We found this motel for our vacation in a motels.com search and couldn't beat the price. Upon first impression the motel seemed decent enough and the location is perfect. My kids were excited that the pool was open but as we walked past to get to our room there was a huge party/bbq taking place right beside it with loud, vulgar music blaring and a lot of rough housing in the pool itsw. So I sadly had to ban my kids from the pool area. The room was clean and the bathroom seemed to have been updated. The bed was quite comfortable. We all feel asleep easily. Until about 3 am when we were awakened by what seemed to be a domestic dispute in the room next door. The yelling, screaming, crying quickly escalated into a full on brawl with furniture being thrown, things or people loudly being flung into the wall and physical violence. My kids were horrified, as was I. It lasted a good 30 mins total. If i hadn't been leaving that morning early for Disneyland I would have left then and there. Better security would be a definite plus!More</t>
   </si>
   <si>
+    <t>Cdp74</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r154402787-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -782,6 +878,9 @@
     <t>After reading the reviews I thought this place must be nice. The woman at the front desk was pleasant and efficient. I was helped quickly and given my key. When I walked into my room I was shocked and wanting to run the other way. Nothing about this hotel is clean or remodeled. The sheets had stuff all over them. Luckily I had my own pillows and blankets. I truly want to ask for my money back so I can go elsewhere. The good reviews are very misleading. The only good thing is location for people that want to be close to Knotts or Medieval Times. I would never tell anyone to stay here. I would rather pay a little more to feel safe and have a clean room.More</t>
   </si>
   <si>
+    <t>Coreydino2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r151704649-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -803,6 +902,9 @@
     <t>No, this is not the Hyatt or Hilton or Hampton Inn. However, this hotel had clean rooms, comfortable beds, and you can hit Knott's Berry with a rock from the parking lot. We found it very handy to be able to came back midday and relax a little before attacking the park anew in the evening. I'm not sure if there is another hotel that I would consider to be in easy walking distance of the park, but I could be wrong. The continental breakfast, as one would imagine, is nothing to get excited about but they do have some juices, coffee, donuts, etc. out each morning. Overall, this place is a great value and I would certainly stay there againMore</t>
   </si>
   <si>
+    <t>Emily L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r139609303-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -821,6 +923,9 @@
     <t>It was end of summer! My kids wanted to go Knott's, we decide to check out the hotel and actual room before we book it, i learned not to rely on reviews completely. After checking a few hotels we decide to go to Rodeway Inn. The location was unbelievable, pool was very clean and inviting(kids loved it). The room and bathroom was clean as-well as the bed was very comfortable. The noise level, furniture and breakfast was average. Staff was very helpful, printed our e-tickets for Knott's and reserved a seat at Medieval Times. Which was a block away from the hotel. The overall stay at Rodeway Inn was a great experience and I will defiantly be back soon.More</t>
   </si>
   <si>
+    <t>Kalieandkhloesmommy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r136902792-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -836,6 +941,9 @@
     <t>We stayed here for 3 nights, we chose it too be close to knotts &amp; yes it sure was but.. I would not reccamend this hotel! The rooms are old, run down, the walls are super thin!! You can hear everything outside your door! The pool is ok. I didn't like that there are no elevators, only outside concrete stairs. The tv entertainment center has deep scratches all over the front of it. The bed is not comfortable! The curtains were partially broken. The knobs in the so called mini kitchen were broken. The bathroom is extremely small! Overall we will not be staying here again!</t>
   </si>
   <si>
+    <t>ronessa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r135789967-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -851,6 +959,9 @@
     <t>We stayed here because of the rate &amp; location. The room was in great need of renovation. The restroom was the main problem. The walls were cracked and in need of paint. The sink was a wall hung sink which left no where to keep toiletries. The wi fi only worked outside and the public computer didn't work. Our room was adjacent to breakfast area so it was noisy early in a.m. The parking lot was also small and felt a bit unsafe. Would only recommend if you are on tight budget &amp; not very picky. I give it a 4 on a 1-10.</t>
   </si>
   <si>
+    <t>savedbythemusic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r127492930-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -869,6 +980,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>msjds</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r127335813-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -890,6 +1004,9 @@
     <t>We stayed here based on Tripadvisor reviews.  Yikes.  The staff at the desk were not in the least friendly or helpful, none of them.  The entire entry area and check-in process is weird, leaving you feeling like there must be a lot of crime in the area.  The room was shabby, holes in the sheets, way out-of-date decor; small bathroom with no towel racks or fan and thin, cheap towels.  We even got to listen to someone dragging suitcases down the stairs in the wee hours.  Oh, skip the 'breakfast'.  I was embarrassed that I had selected this motel.  I have been all over Europe where small and modest can surprise you, but I felt like I hit bottom with this one. I am SURE we could have done better.More</t>
   </si>
   <si>
+    <t>seharmd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r122740074-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -911,6 +1028,9 @@
     <t>We had a mixed experience at this place. Facility was run down with old carpets, old air conditioners and old appliances. Bathroom was tiny. But the beds were comfortable. The facility had many many posted warnings about stealing towels, soap or taking breakfast items out of the breakfast room. The lady on the reception desk was trying to help everyone, but I did not see her smiling once. On the other hand the location is great. It is right across from Knott Berry Farm and people visiting Knott Berry can just cross the road to get there without the hessel of driving or finding parking. It is close to highway and great restaurants. It also has a 24 hour subway besides it, so finding food cannot be an issue if you feel hungry in the middle of the night. There pool was cleaner than other similar facilities and I enjoyed it. Recommended for people visiting Knott Berry.More</t>
   </si>
   <si>
+    <t>Kara S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r121215457-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -929,6 +1049,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>kathy c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r120555454-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -944,6 +1067,9 @@
     <t>This is a good hotel, if you just want to sleep and shower. Did not take advantage of the amenities. Nice and close after a busy day at Knotts. Staff was friendly. Had to compilain because the pool closed at 11:00 and I had to call and complain about people in the jacuzzi after midnight, because they were loud and keeping us awake. Beds were a little too hard for my liking. Room was clean.</t>
   </si>
   <si>
+    <t>jadeegreen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r120152006-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -962,6 +1088,9 @@
     <t>We booked for one night as we were going to Knotts Berry Farm.Great service - check in was at 3pm but they let us park there at 10am and check into our room with no additional charge!Parking is convient and closer to Knotts than its own car park!Rooms are comfortable with microwave and refridgerator! Perfect for a one night stay!It was a little unclean in the hallway but that was it our room was clean!Breakfast is just cereal, orange juice, bread and muffins but there are so many places to eat nearby it doesn't matter!Only annoying thing was that when we went down for breakfast our card had deactivated going back to our room - but it wasn't a problem we went downstairs and it was no problem at all.Check out was easy just handed cards back at check out time which is at 11amThe hotel has a pool but we didn't use it but our view from our window was the pool and it looked cleanAll in all perfect for a one night stayMore</t>
   </si>
   <si>
+    <t>Nietosellshomes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r117999377-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -980,6 +1109,9 @@
     <t>We stayed one night, couldnt find our reservation, even though I showed them my email confirmation. Walls very thin..at night 9 pm ..our neighbor knocked on the door from our 2 year old crying because he had a fever.  Just a weird stay. I told the front desk to move us if the neighbor was bothered because our son was sick and we are from another state...also ac kept having problems staying on.  The room was cheap so we didnt expect much.  Neighbor complained about son crying cause he was trying to work and my only thought was why are you staying at a hotel directly accross the street from a theme park. We have 3 kids and a everyone was tired after a long day at a theme park.  There were several other hotels in the area with vacancy.  We stayed here for the location.  All staff were friendly and tried to be accomodating. More</t>
   </si>
   <si>
+    <t>JungleBoyJohnny</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r116493344-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1001,6 +1133,9 @@
     <t>Hello again, Trippers:  this is a belated review but well deserved.  I had the 7 year-old nephew down for Camp ZUJUBWA  (Zachary and Uncle John's Ultimate Bachelor Week-long Adventure) in late June and we'd decided to go to Knott's Berry Farm as part of the fun.  Having dealt with kids in the past, I know they all need their rest-time (this is why the wife &amp; I have Scooter the Cat, the Faithful Hairy Sidekick to this man-child that I am...).  The Rodeway is a must if you are taking the family to Knott's!!!  First of all, it is only a few minutes walk from the front gate; second of all (sorry, New Yawkers...) there is a Pink's Hot Dog Shop just outside the gate... best hot dogs in the WORLD!!!  Anyway, the hotel was clean, had a fridge and microwave, gloriously comfy beds and the most immaculately clean swimming pool I've ever seen in all my travels!... Sorry, Venetian in Las Vegas, but I have to be honest here!  It was perfect for bringing the little guy (and, yes, me too) back for a break from the park.  I must say "KUDOs" to Karen at the front desk; not only was she great during the reservation process, but when we got there, she had an early check-in available and took care of our every need (like I said: I was there with a 7 year-old... those of you with...Hello again, Trippers:  this is a belated review but well deserved.  I had the 7 year-old nephew down for Camp ZUJUBWA  (Zachary and Uncle John's Ultimate Bachelor Week-long Adventure) in late June and we'd decided to go to Knott's Berry Farm as part of the fun.  Having dealt with kids in the past, I know they all need their rest-time (this is why the wife &amp; I have Scooter the Cat, the Faithful Hairy Sidekick to this man-child that I am...).  The Rodeway is a must if you are taking the family to Knott's!!!  First of all, it is only a few minutes walk from the front gate; second of all (sorry, New Yawkers...) there is a Pink's Hot Dog Shop just outside the gate... best hot dogs in the WORLD!!!  Anyway, the hotel was clean, had a fridge and microwave, gloriously comfy beds and the most immaculately clean swimming pool I've ever seen in all my travels!... Sorry, Venetian in Las Vegas, but I have to be honest here!  It was perfect for bringing the little guy (and, yes, me too) back for a break from the park.  I must say "KUDOs" to Karen at the front desk; not only was she great during the reservation process, but when we got there, she had an early check-in available and took care of our every need (like I said: I was there with a 7 year-old... those of you with kids know what I mean).  Highly recommended if you ever plan a trip to Knott's.  Have I lied to you yet???????More</t>
   </si>
   <si>
+    <t>bobbychase33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r115016857-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1016,6 +1151,9 @@
     <t>The folks at the front desk were pleasant and helpful. The room was cleaned every day of my stay. They give you a solid price for what you receive. Continental breakfast was just that with nice muffins and coffee. If you have a problem with these place, the problem is within you and unrealistic expectations. The only draw back was that the hallway was dirty. It is close to Knotts and alot of nice food places are just up the street. Any hotel I have stayed at has noise.</t>
   </si>
   <si>
+    <t>GrannyGoofy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r93275410-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1055,6 +1193,9 @@
     <t>I was going to Knott's 'Scary' Farm for their annual Halloween Haunt and wanted a nice hotel with close walking distance. I've stayed before at the Knott's Resort which is very nice (I previously reviewed it here) and could have gotten a deal there for $90/night. I searched around and found this place. The same distance as the Knott's Resort Hotel, just at the north end of the park instead of the south and across the street. With my AAA discount I got it for $45/night.  It is a two-story indoor/outdoor property with ample free parking and a pool and hot tub. The room was advertised as having a refrigerator and microwave. Much to my surprise it was a FULL-size fridge with not only a microwave but also a full stove-top with oven and broiler! The room was pretty much whatyou would expect for a budget hotel. Queen bed with three pillows, clock-radio, an AC/Heating unit, an extra sink next to the stove with counter space along with the coffeemaker. The bathroom was basic (towels, shampoo, lotion soap, and women's sanitary items). A flat-panel tv with basic cable channels along with HBO's. The pool area isn't stocked with towels but you can get extras at the front desk. The ice machine and a drink vending machine are also near the pool. The lobby area also has some snack machines. The say they offer free Wi-Fi but I donly know it...I was going to Knott's 'Scary' Farm for their annual Halloween Haunt and wanted a nice hotel with close walking distance. I've stayed before at the Knott's Resort which is very nice (I previously reviewed it here) and could have gotten a deal there for $90/night. I searched around and found this place. The same distance as the Knott's Resort Hotel, just at the north end of the park instead of the south and across the street. With my AAA discount I got it for $45/night.  It is a two-story indoor/outdoor property with ample free parking and a pool and hot tub. The room was advertised as having a refrigerator and microwave. Much to my surprise it was a FULL-size fridge with not only a microwave but also a full stove-top with oven and broiler! The room was pretty much whatyou would expect for a budget hotel. Queen bed with three pillows, clock-radio, an AC/Heating unit, an extra sink next to the stove with counter space along with the coffeemaker. The bathroom was basic (towels, shampoo, lotion soap, and women's sanitary items). A flat-panel tv with basic cable channels along with HBO's. The pool area isn't stocked with towels but you can get extras at the front desk. The ice machine and a drink vending machine are also near the pool. The lobby area also has some snack machines. The say they offer free Wi-Fi but I donly know it it worked since I didn't bring my computer. The hotel has a computer &amp; printer they charge you for. They also offer a daily continental breakfast from 7 - 10 each morning. I didn't partake but it looked like cold cereal, milk, coffee and maybe some pasteries and maybe juice or tea. For food options there is a Subway ad an iHOP directly on either side of the property and a Claim Jumper, Quizno's and McDonald's directly across the street. Also numerous one-off eateris of every food type with a one block walk on both sides of the street. My favorite is a TGIFriday's about three blocks down directly across from the main entrance to Knott's ( and of course don't forget Mrs.Knott's Chicken DInner Restaurant and Pink's located in Knott's Marketplace.)For clean freaks the hotel wasn't the cleanest I've stayed in, but it wasn't overtly dirty. I would give it a B- or C. It didn't bother me but some 'clean-freaks' may be bothered. I was simply there to unwind Saturday night, spend 16 hours at Knott's th next day, and CRASH after 1:00AM the next day/night. Check-in and out was no problem. I've read some reviews about noise and unsavory people hanging out but I didn't really encounter this. The parking lot is jointy shared by the Hotel, iHOP, and the strip of stores next door led-off by Subway. There is a bar next to Subway so there always some people hanging out but they all seem to be doing their own thing at those businesses.More</t>
   </si>
   <si>
+    <t>Richybgood</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r78286299-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1070,6 +1211,9 @@
     <t>Hotel is located within walking distance to Knotts Berry Farms, Soak City and a great variety of restaurants.  I personally saw on three occasions the staff go above and beyond with their service.  The staff was very accomondating with our Youth Group.  The pool was very nice, one that our youth group enjoyed alot.</t>
   </si>
   <si>
+    <t>booobooooo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r74107726-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1088,6 +1232,9 @@
     <t>July 2010</t>
   </si>
   <si>
+    <t>ArrogantChef</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r73653040-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1106,6 +1253,9 @@
     <t>I'll simply break it down. The type of people that stay here are (excluding myself) thugs, drug dealers and loud inconciderate families.  This motel was straight out of movie set in the ghetto. Upon arrival there were police doing a bust in a hotel room. Man next door beating his wife. Gangsters mad dogging in front of hotel. Drunk man with his pants down at the bottom of stairs -night manager did nothing about it. Creepy pedophile looking men facebooking in lobby. We found blood stains on sheets. Manager handed us new sheets like it's no big deal-btw change them yourself because housekeeping is gone. I found pubic hairs on bathroom floor. Housekeeping left there dirty rags on the toilet. The next day we found a toothbrush on our sink that wasn't even ours! This supposed non-smoking room smelled like a downtown Vegas casino.When I complained the manager acted like that's just the way it is! No apology. This all true- no exageration. Although the stay was cheap-it was not worth all the trouble and sense of danger.More</t>
   </si>
   <si>
+    <t>NikeLover_25</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r70686549-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1121,6 +1271,9 @@
     <t>I stayed at this hotel with my very large family during our trip to Knott's Berry Farm and it was awful. This was the worst hotel i've ever stayed in and i want to warn others from making the same mistake. i have listed all the problems we had below. Please heed my warning.- Bed bugs- stained beds- stained carpet- saw a rat near the pool- mildew in the bathroom- musty smell- non-heated pool even though the online description claims heated pool- non-adjustable hot tub- 1 out of 2 barbeques did not work- sketchy people living at the hotel- broken balcony tiles</t>
   </si>
   <si>
+    <t>rovineye</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r50384745-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1142,6 +1295,9 @@
     <t>We stayed only one night, using rewards points for the free night. It was Thanksgiving day, and we arrived about 11 AM so we could spend the day at Knotts Berry Farm. I checked at the front desk to let them know we had arrived and will be parking in their lot (its free) and wouldn't need the room until the evening. He said no problem and our room was ready anyway. It is a very short walk into the park, which is great. The room were basic, but more than OK. Updated bathrooms and some areas of the hotel were currently having new carpeting installed.  As with most choice hotels the breakfast is just toast, cereal coffee, but we don't use it anyway so no big deal.  Only one negative: we had to call down to get the password for WiFi, but our phone didn't work. We called on our cell phone and the desk started calling the room and the phone we couldn't answer kept ringing and ringing. We had to call them twice on cell asking them to stop.Checkout was fast and desk was friendly enough.More</t>
   </si>
   <si>
+    <t>wewk06</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r44078200-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1163,6 +1319,9 @@
     <t>I think this hotel was rated higher than it should have been.Pros:Totally close to Knott's Berry farm, and restaurants (Claim Jumper, Subway), easy walking distance.Surprisingly comfortable bed.Staff gave us a good price and even better if we would have accepted a second night.Free parkingCons:Stains on the side of the mattress, some type of purple liquid.Coffee table was totally dirty and had kids hand prints, goo and cup ringmarks all over it,I figure if they are too absent minded to wipe down the coffee table what else did they skimp on too?Musky smell when we opened the door.Old school, out dated bathroom with a poor paint job and broken parts/wall fixtures.Dirty and slightly damp carpet.I swore to myself I wasn't going to stay in a hotel like this ever again, unfortunately my husband made the arrangements and we stuck it out for one night. It's not that bad, if you are broke, but if you can afford $15-$25 more for a nicer place you probably should and Thank yourself for it later!More</t>
   </si>
   <si>
+    <t>mel_nz_9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r34100673-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1179,6 +1338,9 @@
   </si>
   <si>
     <t>April 2009</t>
+  </si>
+  <si>
+    <t>Malcolmsmom</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r26616835-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
@@ -1208,6 +1370,9 @@
 The smell was awful in the hallways - like 20-year old smoke - although the rooms were marked non-smoking you could tell a lot of smoking still went on in the hallways. Fairly new carpeting helped the room itself smell better. One of our friends couldn't lock the back window and our back...I booked three rooms via online booking service for ourselves and two other couples for a day at Knott's Berry Farm. With confirmations in hand one friend arrived before us and was told there were no reservations but they would book three "friends" who already had reservations elsewhere and "honor" our reservations if we paid them directly. Not wanting to pay twice I called our booking service who insisted the rooms were confirmed. After being transferred three times and spending an hour and a half on the phone with them they finally agreed to refund my money within ten days.We then paid this hotel for rooms at the same price! Had I to do it over again I would have gone elsewhere but we were tired, upset and hungry. The rooms were supposedly "upgraded" to kitchenettes which meant there was a fridge, micro and sink on one wall. We had to unplug the fridge in order to sleep as did one of our friends. The bed was hard as a rock with miniature pillows - one good thing was we immediately got additional pillows when asked. The smell was awful in the hallways - like 20-year old smoke - although the rooms were marked non-smoking you could tell a lot of smoking still went on in the hallways. Fairly new carpeting helped the room itself smell better. One of our friends couldn't lock the back window and our back window looked out on a cinder block wall. At 2:30 a.m. the people next to us decided to either come back or wake up and talk very loudly - we called the front desk and finally got some quiet. Our friends, whose rooms were not near us - had similar experiences with crying babies and arguing people. Because the price was cheap I was initially concerned but  I read the reviews before we booked it and they seemed to describe a totally different place! The towels were small and very scratchy although the bathrooms had new granite counters and tub enclosures - perhaps they are trying to renovate? We didn't stay for the breakfast but all of us were very exhausted the next morning due to not being able to get a good night's sleep the night before.Sadly we realized that several nicer hotels in the area had rooms at the same or better prices.More</t>
   </si>
   <si>
+    <t>reviews321</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r26612209-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1223,6 +1388,9 @@
     <t>Our family of 5 stayed at this hotel, which is close to Knotts Berry Farm.  The positive was they had a refrigerator and microwave, but the negatives much outweighed the positives.  We regularly stay at budget hotels, so we are not picky.  The standard items left in the rooms after housekeeping were not left and we needed to ask the front desk each day we were there (soap, towels, coffee).  The toilet ran constantly, which made a loud noise.  They fixed it quickly, but then it did not flush.  We settled for the loud noise.  The pillows were extremely fat and hard, which were impossible to use, especially for our children.  It took 2 days to get useable ones.  One of our blankets had several burn holes it it and the bathroom was not clean.  We watched tv in the evenings, which had bad reception with lines running up and down.  Breakfast consisted of small muffins, slices of bread in baggies and plain cheerios and plain corn flakes.  Juice and coffee were also provided.  One of our biggest concerns was the number of questionable persons hanging out in the parking lot.  Some on foot and some in their cars, just sitting.  We will stay at the Knotts Berry Farm Resort next time, which was the same cost.  We would not recommend this hotel.More</t>
   </si>
   <si>
+    <t>CanHounds</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r25332931-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1244,6 +1412,9 @@
     <t>My family stayed At the Roadway Inn from February 11, 2009 to February 22, and couldn't say enough about the friendliness of the staff, whether it be the woman in the morning or the gentleman in the evening. Nearly all my requests, from pillows, a pen, to some garbage bags for trash or wet suits was taken care of with cheerful assistance.My biggest concern going in was the neighborhood. I found the location to be overall safe. There was one time my family was coming home late from Knott's Berry Farm and there were some young men hanging out near the bus stop. I was a little concerned, but there is a lot of foot traffic in the area and there was no incident.The rooms were a great value for the price of $50 (including tax). Call direct and they might give you a better price than on the net.  The continental breakfast is solid. It isn't a buffet, but it is adequate. Cereal, good juice, excellent coffee, bread for toast and muffins. The coffee cups are small, so get one from the gas station and use it the next morning. A sign says don't take the food to the room, but not drinks. Nice lounge area as well. The channels offered were a perfect amount. I would return to this motel in a heartbeat.More</t>
   </si>
   <si>
+    <t>LondonHicks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r19671588-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1260,6 +1431,9 @@
   </si>
   <si>
     <t>August 2008</t>
+  </si>
+  <si>
+    <t>DurNacc</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r17889076-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
@@ -1295,6 +1469,9 @@
 If you have to stay in Anaheim, Buena Park, or any of the surrounding cities, I HIGHLY RECOMMEND this motel. It's very nice and clean, and the area is safe. Trust...Pros:Clean room, friendly staff, housekeeping was great, pool and Jacuzzi clean and available any time, ice and drink machine on site.Cons: The rooms are kind of old. Wall outlets, and closet, though safe, looked their age. Parking area is small and cramped, lucky to get a space if you come back late at night. We always managed though!Like people have said, this place is about a 10 minute walk from Knott's Berry Farm max. There's an IHOP, and Subway next door. There's also a small bar. If you drive some miles from the hotel on either side, you'll find donut shops, Jack In The Box, asian food, and JUAN POLLO (a must try).There is much to explore in the area. That's a given because you're in Southern CaliforniaOne other bad thing, I didn't find much favor with continental breakfast. Two types of cereal are offered, as is juice and toast. The cereal I got was OK until I pored the milk in. The milk was on the verge of spoiling, it had that sour taste to it! Also, the orange juice wasn't great either. Cartons of Donald Duck brand OJ were in the trash, which is fine, but it had been watered down. Yuck.If you have to stay in Anaheim, Buena Park, or any of the surrounding cities, I HIGHLY RECOMMEND this motel. It's very nice and clean, and the area is safe. Trust me. As a 24 year resident of Los Angeles county, believe me when I say you could do A LOT worse than this city and this hotel!More</t>
   </si>
   <si>
+    <t>MyshG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r17416037-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1324,6 +1501,9 @@
 The carpet was dark green and looked fairly new.  However, as with all hotels and motels, it goes without saying that you should be prepared to wind up with dirty feet or dirty socks from all of the other people who have walked on the carpet with their dirty shoes.  The decor was pleasant, nothing special, but everything was clean...My family and I stayed at the Rodeway Inn in Buena Park for 2 nights at the end of June.  I booked the room directly through the property on their website and with a discount, paid $65.00 per night not including taxes or fees.When booking, I had asked to have a non-smoking room on the top floor away from noise.  The manager took this into consideration and gave us such a room.  He was pleasant and the only person in the motel that I talked to while we were there.It had 2 queen sized beds, a full sized closet, an armoire with 3 drawers and a good size TV.  There was a desk in the room, a desk chair, another chair that reminded me of something that would go with a kitchenette set, a heating/cooling window unit, lamps, a small refrigerator, a small microwave, luggage rack, and coffee maker.The bathroom was nice sized with a long countertop, a hair dryer, towels and travel-sized toiletries.  The shower/tub was clean and mildew free and looked on the newer side.The carpet was dark green and looked fairly new.  However, as with all hotels and motels, it goes without saying that you should be prepared to wind up with dirty feet or dirty socks from all of the other people who have walked on the carpet with their dirty shoes.  The decor was pleasant, nothing special, but everything was clean which is more important to me.The bed mattresses were new looking too.  And there were NO bed bugs in our room.  The linens were fresh and untorn, except for the fuzzy blankets that seem to be a staple in this caliber of hotel.  It looked like the washing machine or dryer had taken some of the fuzz in chunks out of the blanket.  Other than that, we had no complaints about the beds.The hotel itself sits in a parking lot on Beach Blvd and faces west.  La Palma Avenue is on the north side and the Buena Park Mall is less than a half mile to the east away also on La Palma Ave.  Knott's Berry Farm is on the opposite corner from the Rodeway Inn, a nice Claim Jumper is directly across the street, IHOP, Subway and Washington Mutual Bank are less than a minute away by foot.  Also, there is McDonald's, Starbuck's, Medieval Times, Pirate Adventure, PoFolk's, Ripley's Believe It Or Not Museum also on Beach Blvd, just north of the motel.  We walked to and from Knott's on a busy Saturday without any problems.The motel offered a complimentary breakfast with the typical cereal and juice set up, served in their eating area next to the lobby.  Signs asked that the food not be taken up to the rooms, which is odd considering that the motel allows food to be stored and cooked in the rooms.  There was a courtyard with a pool and jacuzzi which were being used by other guests and they looked clean but we did not use them ourselves.All in all, we were not disappointed.  We heard no loud noises and didn't smell any strange smells or experience anything out of the ordinary.  This property offered my family the chance to stay in a clean and decently maintained room that was very close to food, shopping and attractions.  If you're a budget traveler, don't be afraid to stay here.More</t>
   </si>
   <si>
+    <t>Laura1957</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r6183361-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1347,6 +1527,9 @@
 The location of the Roadway Inn is EXCELLENT! It is the closest hotel to Knotts with the exception of Knotts Resort Hotel on the opposite end of the park....We decided to go to Knotts Berry Farm at the last minute, on Thanksgiving weekend. We wanted to book 3 rooms together for our extended family so I called the hotel directly. Because I called just 1  day before our stay, I expected to pay more for our rooms. Our rooms consisted of 2 Queen beds per room at $63 each, and the hotel clerk was able to place us with rooms side by side. We were very pleased with the accommodations  The rooms were a decent size for 2 people, however I think they would be a bit cramped for 4. The rooms were passable on cleanliness. There were a few scuff marks and cracks on the walls and a few stains in the rugs, but overall they were clean with no mold in the bathrooms. (mold is a big peeve for me). The rooms each had a mini refrigerator and microwave. If you plan on packing in your meals and eating in the room,  the microwave and frig are a great convenience, however the rooms did not have tables. (They had work desks instead. Kind of an inconsistent theme to me). Oh - and they did not have alarm clocks or clocks of any kind so bring your own.The location of the Roadway Inn is EXCELLENT! It is the closest hotel to Knotts with the exception of Knotts Resort Hotel on the opposite end of the park. Being able to walk to Knotts saved us a $12 parking fee. The Roadway Inn also has several restaurants nearby. A IHOP is located on the same lot and so is a Subway. McDonalds and a Cask and Clever restaurant are across the street and several other fast food places are very close. A bank with an ATM is next door. The location and variety of restaurants make this an ideal place to stay. The grounds were clean and nicely landscaped. The swimming pool and pool area was clean. The pool was a good size, however the Jacuzzi was a bit small. The Jacuzzi was a welcome treat for my tired feet after a day of walking at Knotts!The best asset of this hotel is it's location. There are an abundance of restaurants within walking distance and other attractions nearby. The  Knotts Resort is the next closest hotel, however it is located on the opposite side of the park and does not have as many choices in restaurants - Something you may want to consider. I liked the Roadway Inn because once we parked our gas guzzling SUV, we didn't need it again until we left.Overall, we were very happy with the location and accommodations.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r3695003-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1363,6 +1546,9 @@
   </si>
   <si>
     <t>When we checked in the office staff was unable to retrieve our reservations that we had had for several weeks.  When I gave them our confirmation number they told us that their system wouldn't recognize that number because it had too many numbers in it.  Therefore, we had no room, but they found us one for the night until they could straighten everything out.  The next day, the manager was rude to me when I asked whether they had found us a room to move into.  He was clearly unhappy about the low price we had gotten the room for since I had booked it so early through a loyalty program.  When I called the customer service number for our loyalty program and told them about the mix-up, they said they use the same reservation system that the hotel itself uses, so if there was system incompatibility it would have to be between the local hotel and the national reservation number for Super 8.  As I was speaking to customer service, the manager rudely asked me to move away from the desk because he was trying to take a call.  For the condition of the rooms and the property, the hassle wasn't worth it.  Just remember, you get what you pay for.  I think some of this difficulty was due to the fact that NOBODY at the hotel was an English-speaking American.More</t>
+  </si>
+  <si>
+    <t>Capthook</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76244-r2699403-Rodeway_Inn_Near_Maingate_Knott_s-Buena_Park_California.html</t>
@@ -1885,43 +2071,47 @@
       <c r="A2" t="n">
         <v>24338</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1939,50 +2129,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>24338</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2000,50 +2194,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>24338</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2057,50 +2255,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>24338</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -2120,50 +2322,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>24338</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2181,50 +2387,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>24338</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2238,41 +2448,45 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>24338</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
@@ -2291,50 +2505,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>24338</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2352,50 +2570,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>24338</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2409,50 +2631,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>24338</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -2472,50 +2698,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>24338</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="O12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2529,50 +2759,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>24338</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="O13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2590,50 +2824,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>24338</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -2653,50 +2891,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>24338</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2714,50 +2956,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>24338</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2769,56 +3015,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="X16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="Y16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>24338</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>163</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="O17" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2838,50 +3088,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>24338</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>171</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="J18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="O18" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -2901,50 +3155,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>24338</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>179</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="J19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="K19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2962,50 +3220,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>24338</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="J20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="K20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -3029,50 +3291,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>24338</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>195</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="J21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="K21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -3096,50 +3362,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>24338</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>202</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="J22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="K22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3153,50 +3423,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>24338</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>208</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="J23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="K23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -3220,50 +3494,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>24338</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>216</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="J24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="K24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="O24" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -3287,50 +3565,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>24338</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>223</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="J25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="K25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="L25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3354,50 +3636,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>24338</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>229</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="J26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="K26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -3421,50 +3707,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>24338</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>237</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="J27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="K27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="O27" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="P27" t="n">
         <v>2</v>
@@ -3488,48 +3778,52 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>24338</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>244</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="J28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="O28" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -3553,50 +3847,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>24338</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>250</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="J29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="K29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3620,50 +3918,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>24338</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>257</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="J30" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="K30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -3683,50 +3985,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>24338</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>263</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="J31" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="K31" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="L31" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -3746,41 +4052,45 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>24338</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>270</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="J32" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="K32" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="L32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
@@ -3809,41 +4119,45 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>24338</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>277</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="J33" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="K33" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
@@ -3872,50 +4186,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>24338</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>284</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="J34" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="K34" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="L34" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3939,50 +4257,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>24338</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>292</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="J35" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="K35" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="L35" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -4006,41 +4328,45 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>24338</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>299</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="J36" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="K36" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="L36" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
@@ -4069,41 +4395,45 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>24338</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>305</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="J37" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="K37" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="L37" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
@@ -4132,50 +4462,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>24338</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>311</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="J38" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="K38" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="L38" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4199,50 +4533,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>24338</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>318</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="J39" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="K39" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="L39" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>2</v>
@@ -4266,50 +4604,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>24338</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>326</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="J40" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="K40" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="L40" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -4333,50 +4675,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>24338</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>334</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="J41" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="K41" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="L41" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="O41" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4400,50 +4746,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>24338</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>341</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="J42" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="K42" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="L42" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="O42" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4467,41 +4817,45 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>24338</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>347</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="J43" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="K43" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="L43" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
@@ -4530,41 +4884,45 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>24338</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>354</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="J44" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="K44" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="L44" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
@@ -4593,50 +4951,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>24338</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>361</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="J45" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="K45" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="L45" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4656,50 +5018,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>24338</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>369</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="J46" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="K46" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="L46" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="O46" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4719,50 +5085,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>24338</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>375</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="J47" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="K47" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="L47" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="O47" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -4786,50 +5156,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>24338</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>171</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="J48" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="K48" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="L48" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="O48" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4853,41 +5227,45 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>24338</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>389</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="J49" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="K49" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="L49" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
@@ -4916,50 +5294,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>24338</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>395</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="J50" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="K50" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="L50" t="s">
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -4983,41 +5365,45 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>352</v>
+        <v>400</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>24338</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>402</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="J51" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="K51" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="L51" t="s">
-        <v>358</v>
+        <v>407</v>
       </c>
       <c r="M51" t="n">
         <v>2</v>
@@ -5046,50 +5432,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>359</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>24338</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>409</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="J52" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="K52" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="L52" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -5113,50 +5503,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>24338</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>415</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>366</v>
+        <v>417</v>
       </c>
       <c r="J53" t="s">
-        <v>367</v>
+        <v>418</v>
       </c>
       <c r="K53" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="L53" t="s">
-        <v>369</v>
+        <v>420</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="O53" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5180,50 +5574,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>24338</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>423</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J54" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="K54" t="s">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="L54" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="M54" t="n">
         <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>377</v>
+        <v>429</v>
       </c>
       <c r="O54" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P54" t="n">
         <v>2</v>
@@ -5247,50 +5645,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>24338</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>431</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="J55" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
       <c r="K55" t="s">
-        <v>382</v>
+        <v>435</v>
       </c>
       <c r="L55" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>384</v>
+        <v>437</v>
       </c>
       <c r="O55" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5304,50 +5706,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>24338</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>438</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="J56" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="K56" t="s">
-        <v>388</v>
+        <v>442</v>
       </c>
       <c r="L56" t="s">
-        <v>389</v>
+        <v>443</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>390</v>
+        <v>444</v>
       </c>
       <c r="O56" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="P56" t="n">
         <v>2</v>
@@ -5371,50 +5777,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>391</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>24338</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>446</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>393</v>
+        <v>448</v>
       </c>
       <c r="J57" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="K57" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
       <c r="L57" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>390</v>
+        <v>444</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>2</v>
@@ -5438,50 +5848,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>24338</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>452</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="J58" t="s">
-        <v>399</v>
+        <v>455</v>
       </c>
       <c r="K58" t="s">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="L58" t="s">
-        <v>401</v>
+        <v>457</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5505,50 +5919,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>403</v>
+        <v>459</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>24338</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>460</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="J59" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="K59" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="L59" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -5572,50 +5990,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>24338</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>467</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>410</v>
+        <v>468</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>411</v>
+        <v>469</v>
       </c>
       <c r="J60" t="s">
-        <v>412</v>
+        <v>470</v>
       </c>
       <c r="K60" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="L60" t="s">
-        <v>414</v>
+        <v>472</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>415</v>
+        <v>473</v>
       </c>
       <c r="O60" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -5639,50 +6061,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>416</v>
+        <v>474</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>24338</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>475</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>417</v>
+        <v>476</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>418</v>
+        <v>477</v>
       </c>
       <c r="J61" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="K61" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="L61" t="s">
-        <v>421</v>
+        <v>480</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>422</v>
+        <v>481</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -5704,50 +6130,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>423</v>
+        <v>482</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>24338</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>483</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>424</v>
+        <v>484</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>425</v>
+        <v>485</v>
       </c>
       <c r="J62" t="s">
-        <v>426</v>
+        <v>486</v>
       </c>
       <c r="K62" t="s">
-        <v>427</v>
+        <v>487</v>
       </c>
       <c r="L62" t="s">
-        <v>428</v>
+        <v>488</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>429</v>
+        <v>489</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -5771,41 +6201,45 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>430</v>
+        <v>490</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>24338</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>491</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>431</v>
+        <v>492</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>432</v>
+        <v>493</v>
       </c>
       <c r="J63" t="s">
-        <v>433</v>
+        <v>494</v>
       </c>
       <c r="K63" t="s">
-        <v>434</v>
+        <v>495</v>
       </c>
       <c r="L63" t="s">
-        <v>435</v>
+        <v>496</v>
       </c>
       <c r="M63" t="n">
         <v>1</v>
@@ -5832,41 +6266,45 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>436</v>
+        <v>497</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>24338</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>498</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>437</v>
+        <v>499</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="J64" t="s">
-        <v>439</v>
+        <v>501</v>
       </c>
       <c r="K64" t="s">
-        <v>440</v>
+        <v>502</v>
       </c>
       <c r="L64" t="s">
-        <v>441</v>
+        <v>503</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
@@ -5893,7 +6331,7 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>442</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
